--- a/TestData/MasterDataSheetUI.xlsx
+++ b/TestData/MasterDataSheetUI.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17970" uniqueCount="3320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17970" uniqueCount="3319">
   <si>
     <t>Active</t>
   </si>
@@ -9973,9 +9973,6 @@
   </si>
   <si>
     <t>qc</t>
-  </si>
-  <si>
-    <t>1o</t>
   </si>
   <si>
     <t>op</t>
@@ -10857,7 +10854,7 @@
   <dimension ref="A1:O1198"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="O132" sqref="O132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10920,96 +10917,96 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>1220</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>2418</v>
+        <v>19</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>23</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>2419</v>
       </c>
-      <c r="O2" t="s">
-        <v>3319</v>
+      <c r="O2" s="7" t="s">
+        <v>3318</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>1220</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>19</v>
+        <v>2418</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>23</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>3318</v>
+        <v>2419</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>2423</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>3319</v>
+        <v>2419</v>
+      </c>
+      <c r="O3" t="s">
+        <v>3318</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -11056,7 +11053,7 @@
         <v>2423</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -11103,7 +11100,7 @@
         <v>2423</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -11150,7 +11147,7 @@
         <v>2423</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -11197,7 +11194,7 @@
         <v>2423</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -11244,7 +11241,7 @@
         <v>2423</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -11291,7 +11288,7 @@
         <v>2423</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -11338,7 +11335,7 @@
         <v>2423</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -11385,7 +11382,7 @@
         <v>2423</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -11432,7 +11429,7 @@
         <v>2423</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -11479,7 +11476,7 @@
         <v>2423</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -16414,7 +16411,7 @@
         <v>2423</v>
       </c>
       <c r="O118" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
@@ -16461,7 +16458,7 @@
         <v>2423</v>
       </c>
       <c r="O119" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
@@ -16508,7 +16505,7 @@
         <v>2423</v>
       </c>
       <c r="O120" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
@@ -16555,7 +16552,7 @@
         <v>2423</v>
       </c>
       <c r="O121" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
@@ -16602,7 +16599,7 @@
         <v>2423</v>
       </c>
       <c r="O122" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
@@ -16649,7 +16646,7 @@
         <v>2423</v>
       </c>
       <c r="O123" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
@@ -16696,7 +16693,7 @@
         <v>2423</v>
       </c>
       <c r="O124" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
@@ -16743,7 +16740,7 @@
         <v>2423</v>
       </c>
       <c r="O125" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
@@ -16790,7 +16787,7 @@
         <v>2423</v>
       </c>
       <c r="O126" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
@@ -16837,7 +16834,7 @@
         <v>2423</v>
       </c>
       <c r="O127" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
@@ -16884,7 +16881,7 @@
         <v>2423</v>
       </c>
       <c r="O128" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
@@ -16931,7 +16928,7 @@
         <v>2423</v>
       </c>
       <c r="O129" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
@@ -16978,7 +16975,7 @@
         <v>2423</v>
       </c>
       <c r="O130" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
@@ -17025,7 +17022,7 @@
         <v>2423</v>
       </c>
       <c r="O131" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
@@ -17072,11 +17069,11 @@
         <v>2423</v>
       </c>
       <c r="O132" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A133" s="7" t="s">
+      <c r="A133" s="6" t="s">
         <v>155</v>
       </c>
       <c r="B133" s="3" t="s">
@@ -17119,7 +17116,7 @@
         <v>2423</v>
       </c>
       <c r="O133" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
@@ -17166,7 +17163,7 @@
         <v>2423</v>
       </c>
       <c r="O134" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
@@ -17213,7 +17210,7 @@
         <v>2423</v>
       </c>
       <c r="O135" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
@@ -17260,7 +17257,7 @@
         <v>2423</v>
       </c>
       <c r="O136" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
@@ -17307,7 +17304,7 @@
         <v>2423</v>
       </c>
       <c r="O137" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
@@ -17354,7 +17351,7 @@
         <v>2423</v>
       </c>
       <c r="O138" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
@@ -17401,7 +17398,7 @@
         <v>2423</v>
       </c>
       <c r="O139" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
@@ -17448,7 +17445,7 @@
         <v>2423</v>
       </c>
       <c r="O140" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
@@ -17495,7 +17492,7 @@
         <v>2423</v>
       </c>
       <c r="O141" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
@@ -17542,7 +17539,7 @@
         <v>2423</v>
       </c>
       <c r="O142" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
@@ -17589,7 +17586,7 @@
         <v>2423</v>
       </c>
       <c r="O143" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
@@ -17636,7 +17633,7 @@
         <v>2423</v>
       </c>
       <c r="O144" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
@@ -17683,7 +17680,7 @@
         <v>2423</v>
       </c>
       <c r="O145" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
@@ -17730,7 +17727,7 @@
         <v>2423</v>
       </c>
       <c r="O146" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
@@ -17777,7 +17774,7 @@
         <v>2423</v>
       </c>
       <c r="O147" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
@@ -17824,7 +17821,7 @@
         <v>2423</v>
       </c>
       <c r="O148" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
@@ -17871,7 +17868,7 @@
         <v>2423</v>
       </c>
       <c r="O149" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
@@ -17918,7 +17915,7 @@
         <v>2423</v>
       </c>
       <c r="O150" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
@@ -17965,7 +17962,7 @@
         <v>2423</v>
       </c>
       <c r="O151" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
@@ -18012,7 +18009,7 @@
         <v>2423</v>
       </c>
       <c r="O152" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
@@ -18059,7 +18056,7 @@
         <v>2423</v>
       </c>
       <c r="O153" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
@@ -18106,7 +18103,7 @@
         <v>2423</v>
       </c>
       <c r="O154" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
@@ -18153,7 +18150,7 @@
         <v>2423</v>
       </c>
       <c r="O155" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
@@ -18200,7 +18197,7 @@
         <v>2423</v>
       </c>
       <c r="O156" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
@@ -18247,7 +18244,7 @@
         <v>2423</v>
       </c>
       <c r="O157" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
@@ -18294,7 +18291,7 @@
         <v>2423</v>
       </c>
       <c r="O158" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
@@ -18341,7 +18338,7 @@
         <v>2423</v>
       </c>
       <c r="O159" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
@@ -18388,7 +18385,7 @@
         <v>2423</v>
       </c>
       <c r="O160" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.25">
@@ -18435,7 +18432,7 @@
         <v>2423</v>
       </c>
       <c r="O161" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
@@ -18482,7 +18479,7 @@
         <v>2423</v>
       </c>
       <c r="O162" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
@@ -18529,7 +18526,7 @@
         <v>2423</v>
       </c>
       <c r="O163" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
@@ -18576,7 +18573,7 @@
         <v>2423</v>
       </c>
       <c r="O164" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
@@ -18623,7 +18620,7 @@
         <v>2423</v>
       </c>
       <c r="O165" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
@@ -18670,7 +18667,7 @@
         <v>2423</v>
       </c>
       <c r="O166" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
@@ -18717,7 +18714,7 @@
         <v>2423</v>
       </c>
       <c r="O167" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
@@ -18764,7 +18761,7 @@
         <v>2423</v>
       </c>
       <c r="O168" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
@@ -18811,7 +18808,7 @@
         <v>2423</v>
       </c>
       <c r="O169" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
@@ -18858,7 +18855,7 @@
         <v>2423</v>
       </c>
       <c r="O170" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
@@ -18905,7 +18902,7 @@
         <v>2423</v>
       </c>
       <c r="O171" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
@@ -18952,7 +18949,7 @@
         <v>2423</v>
       </c>
       <c r="O172" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
@@ -18999,7 +18996,7 @@
         <v>2423</v>
       </c>
       <c r="O173" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
@@ -19046,7 +19043,7 @@
         <v>2423</v>
       </c>
       <c r="O174" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
@@ -19093,7 +19090,7 @@
         <v>2423</v>
       </c>
       <c r="O175" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
@@ -19140,7 +19137,7 @@
         <v>2423</v>
       </c>
       <c r="O176" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
@@ -19187,7 +19184,7 @@
         <v>2423</v>
       </c>
       <c r="O177" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
@@ -19234,7 +19231,7 @@
         <v>2423</v>
       </c>
       <c r="O178" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
@@ -19281,7 +19278,7 @@
         <v>2423</v>
       </c>
       <c r="O179" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
@@ -19328,7 +19325,7 @@
         <v>2423</v>
       </c>
       <c r="O180" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
@@ -19375,7 +19372,7 @@
         <v>2423</v>
       </c>
       <c r="O181" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
@@ -19422,7 +19419,7 @@
         <v>2423</v>
       </c>
       <c r="O182" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
@@ -19469,7 +19466,7 @@
         <v>2423</v>
       </c>
       <c r="O183" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
@@ -19516,7 +19513,7 @@
         <v>2423</v>
       </c>
       <c r="O184" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
@@ -19563,7 +19560,7 @@
         <v>2423</v>
       </c>
       <c r="O185" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
@@ -19610,7 +19607,7 @@
         <v>2423</v>
       </c>
       <c r="O186" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
@@ -19657,7 +19654,7 @@
         <v>2423</v>
       </c>
       <c r="O187" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
@@ -19704,7 +19701,7 @@
         <v>2423</v>
       </c>
       <c r="O188" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
@@ -19751,7 +19748,7 @@
         <v>2423</v>
       </c>
       <c r="O189" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
@@ -19798,7 +19795,7 @@
         <v>2423</v>
       </c>
       <c r="O190" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
@@ -19845,7 +19842,7 @@
         <v>2423</v>
       </c>
       <c r="O191" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
@@ -19892,7 +19889,7 @@
         <v>2423</v>
       </c>
       <c r="O192" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
@@ -19939,7 +19936,7 @@
         <v>2423</v>
       </c>
       <c r="O193" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
@@ -19986,7 +19983,7 @@
         <v>2423</v>
       </c>
       <c r="O194" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
@@ -20033,7 +20030,7 @@
         <v>2423</v>
       </c>
       <c r="O195" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
@@ -20080,7 +20077,7 @@
         <v>2423</v>
       </c>
       <c r="O196" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
@@ -20127,7 +20124,7 @@
         <v>2423</v>
       </c>
       <c r="O197" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
@@ -20174,7 +20171,7 @@
         <v>2423</v>
       </c>
       <c r="O198" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
@@ -20221,7 +20218,7 @@
         <v>2423</v>
       </c>
       <c r="O199" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
@@ -20268,7 +20265,7 @@
         <v>2423</v>
       </c>
       <c r="O200" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
@@ -20315,7 +20312,7 @@
         <v>2423</v>
       </c>
       <c r="O201" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
@@ -20362,7 +20359,7 @@
         <v>2423</v>
       </c>
       <c r="O202" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
@@ -20409,7 +20406,7 @@
         <v>2423</v>
       </c>
       <c r="O203" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
@@ -20456,7 +20453,7 @@
         <v>2423</v>
       </c>
       <c r="O204" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
@@ -20503,7 +20500,7 @@
         <v>2423</v>
       </c>
       <c r="O205" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
@@ -20550,7 +20547,7 @@
         <v>2423</v>
       </c>
       <c r="O206" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
@@ -20597,7 +20594,7 @@
         <v>2423</v>
       </c>
       <c r="O207" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
@@ -20644,7 +20641,7 @@
         <v>2423</v>
       </c>
       <c r="O208" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
@@ -20691,7 +20688,7 @@
         <v>2423</v>
       </c>
       <c r="O209" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
@@ -20738,7 +20735,7 @@
         <v>2423</v>
       </c>
       <c r="O210" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
@@ -20785,7 +20782,7 @@
         <v>2423</v>
       </c>
       <c r="O211" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
@@ -20832,7 +20829,7 @@
         <v>2423</v>
       </c>
       <c r="O212" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
@@ -20879,7 +20876,7 @@
         <v>2423</v>
       </c>
       <c r="O213" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
@@ -20926,7 +20923,7 @@
         <v>2423</v>
       </c>
       <c r="O214" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
@@ -20973,7 +20970,7 @@
         <v>2423</v>
       </c>
       <c r="O215" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
@@ -21020,7 +21017,7 @@
         <v>2423</v>
       </c>
       <c r="O216" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
@@ -21067,7 +21064,7 @@
         <v>2423</v>
       </c>
       <c r="O217" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.25">
@@ -21114,7 +21111,7 @@
         <v>2423</v>
       </c>
       <c r="O218" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
@@ -21161,7 +21158,7 @@
         <v>2423</v>
       </c>
       <c r="O219" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
@@ -21208,7 +21205,7 @@
         <v>2423</v>
       </c>
       <c r="O220" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.25">
@@ -21255,7 +21252,7 @@
         <v>2423</v>
       </c>
       <c r="O221" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.25">
@@ -21302,7 +21299,7 @@
         <v>2423</v>
       </c>
       <c r="O222" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
@@ -21349,7 +21346,7 @@
         <v>2423</v>
       </c>
       <c r="O223" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
@@ -21396,7 +21393,7 @@
         <v>2423</v>
       </c>
       <c r="O224" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.25">
@@ -21443,7 +21440,7 @@
         <v>2423</v>
       </c>
       <c r="O225" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.25">
@@ -21490,7 +21487,7 @@
         <v>2423</v>
       </c>
       <c r="O226" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.25">
@@ -21537,7 +21534,7 @@
         <v>2423</v>
       </c>
       <c r="O227" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.25">
@@ -21584,7 +21581,7 @@
         <v>2423</v>
       </c>
       <c r="O228" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.25">
@@ -21631,7 +21628,7 @@
         <v>2423</v>
       </c>
       <c r="O229" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
@@ -21678,7 +21675,7 @@
         <v>2423</v>
       </c>
       <c r="O230" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.25">
@@ -21725,7 +21722,7 @@
         <v>2423</v>
       </c>
       <c r="O231" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.25">
@@ -21772,7 +21769,7 @@
         <v>2423</v>
       </c>
       <c r="O232" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.25">
@@ -21819,7 +21816,7 @@
         <v>2423</v>
       </c>
       <c r="O233" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.25">
@@ -21866,7 +21863,7 @@
         <v>2423</v>
       </c>
       <c r="O234" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.25">
@@ -21913,7 +21910,7 @@
         <v>2423</v>
       </c>
       <c r="O235" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
@@ -21960,7 +21957,7 @@
         <v>2423</v>
       </c>
       <c r="O236" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.25">
@@ -22007,7 +22004,7 @@
         <v>2423</v>
       </c>
       <c r="O237" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.25">
@@ -22054,7 +22051,7 @@
         <v>2423</v>
       </c>
       <c r="O238" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.25">
@@ -22101,7 +22098,7 @@
         <v>2423</v>
       </c>
       <c r="O239" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.25">
@@ -22148,7 +22145,7 @@
         <v>2423</v>
       </c>
       <c r="O240" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.25">
@@ -22195,7 +22192,7 @@
         <v>2423</v>
       </c>
       <c r="O241" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.25">
@@ -22242,7 +22239,7 @@
         <v>2423</v>
       </c>
       <c r="O242" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.25">
@@ -22289,7 +22286,7 @@
         <v>2423</v>
       </c>
       <c r="O243" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.25">
@@ -22336,7 +22333,7 @@
         <v>2423</v>
       </c>
       <c r="O244" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.25">
@@ -22383,7 +22380,7 @@
         <v>2423</v>
       </c>
       <c r="O245" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.25">
@@ -22430,7 +22427,7 @@
         <v>2423</v>
       </c>
       <c r="O246" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.25">
@@ -22477,7 +22474,7 @@
         <v>2423</v>
       </c>
       <c r="O247" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.25">
@@ -22524,7 +22521,7 @@
         <v>2423</v>
       </c>
       <c r="O248" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
@@ -22571,7 +22568,7 @@
         <v>2423</v>
       </c>
       <c r="O249" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
@@ -22618,7 +22615,7 @@
         <v>2423</v>
       </c>
       <c r="O250" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
@@ -22665,7 +22662,7 @@
         <v>2423</v>
       </c>
       <c r="O251" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
@@ -22712,7 +22709,7 @@
         <v>2423</v>
       </c>
       <c r="O252" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.25">
@@ -22759,7 +22756,7 @@
         <v>2423</v>
       </c>
       <c r="O253" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
@@ -22806,7 +22803,7 @@
         <v>2423</v>
       </c>
       <c r="O254" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
@@ -22853,7 +22850,7 @@
         <v>2423</v>
       </c>
       <c r="O255" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.25">
@@ -22900,7 +22897,7 @@
         <v>2423</v>
       </c>
       <c r="O256" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.25">
@@ -22947,7 +22944,7 @@
         <v>2423</v>
       </c>
       <c r="O257" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.25">
@@ -22994,7 +22991,7 @@
         <v>2423</v>
       </c>
       <c r="O258" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.25">
@@ -23041,7 +23038,7 @@
         <v>2423</v>
       </c>
       <c r="O259" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.25">
@@ -23088,7 +23085,7 @@
         <v>2423</v>
       </c>
       <c r="O260" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.25">
@@ -23135,7 +23132,7 @@
         <v>2423</v>
       </c>
       <c r="O261" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.25">
@@ -23182,7 +23179,7 @@
         <v>2423</v>
       </c>
       <c r="O262" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.25">
@@ -23229,7 +23226,7 @@
         <v>2423</v>
       </c>
       <c r="O263" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.25">
@@ -23276,7 +23273,7 @@
         <v>2423</v>
       </c>
       <c r="O264" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.25">
@@ -23323,7 +23320,7 @@
         <v>2423</v>
       </c>
       <c r="O265" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.25">
@@ -23370,7 +23367,7 @@
         <v>2423</v>
       </c>
       <c r="O266" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.25">
@@ -23417,7 +23414,7 @@
         <v>2423</v>
       </c>
       <c r="O267" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.25">
@@ -23464,7 +23461,7 @@
         <v>2423</v>
       </c>
       <c r="O268" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.25">
@@ -23511,7 +23508,7 @@
         <v>2423</v>
       </c>
       <c r="O269" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.25">
@@ -23558,7 +23555,7 @@
         <v>2423</v>
       </c>
       <c r="O270" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.25">
@@ -23605,7 +23602,7 @@
         <v>2423</v>
       </c>
       <c r="O271" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="272" spans="1:15" x14ac:dyDescent="0.25">
@@ -23652,7 +23649,7 @@
         <v>2423</v>
       </c>
       <c r="O272" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.25">
@@ -23699,7 +23696,7 @@
         <v>2423</v>
       </c>
       <c r="O273" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.25">
@@ -23746,7 +23743,7 @@
         <v>2423</v>
       </c>
       <c r="O274" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.25">
@@ -23793,7 +23790,7 @@
         <v>2423</v>
       </c>
       <c r="O275" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.25">
@@ -23840,7 +23837,7 @@
         <v>2423</v>
       </c>
       <c r="O276" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.25">
@@ -23887,7 +23884,7 @@
         <v>2423</v>
       </c>
       <c r="O277" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.25">
@@ -23934,7 +23931,7 @@
         <v>2423</v>
       </c>
       <c r="O278" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.25">
@@ -23981,7 +23978,7 @@
         <v>2423</v>
       </c>
       <c r="O279" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.25">
@@ -24028,7 +24025,7 @@
         <v>2423</v>
       </c>
       <c r="O280" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.25">
@@ -24075,7 +24072,7 @@
         <v>2423</v>
       </c>
       <c r="O281" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="282" spans="1:15" x14ac:dyDescent="0.25">
@@ -24122,7 +24119,7 @@
         <v>2423</v>
       </c>
       <c r="O282" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.25">
@@ -24169,7 +24166,7 @@
         <v>2423</v>
       </c>
       <c r="O283" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.25">
@@ -24216,7 +24213,7 @@
         <v>2423</v>
       </c>
       <c r="O284" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.25">
@@ -24263,7 +24260,7 @@
         <v>2423</v>
       </c>
       <c r="O285" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.25">
@@ -24310,7 +24307,7 @@
         <v>2423</v>
       </c>
       <c r="O286" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.25">
@@ -24357,7 +24354,7 @@
         <v>2423</v>
       </c>
       <c r="O287" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="288" spans="1:15" x14ac:dyDescent="0.25">
@@ -24404,7 +24401,7 @@
         <v>2423</v>
       </c>
       <c r="O288" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.25">
@@ -24451,7 +24448,7 @@
         <v>2423</v>
       </c>
       <c r="O289" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.25">
@@ -24498,7 +24495,7 @@
         <v>2423</v>
       </c>
       <c r="O290" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.25">
@@ -24545,7 +24542,7 @@
         <v>2423</v>
       </c>
       <c r="O291" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.25">
@@ -24592,7 +24589,7 @@
         <v>2423</v>
       </c>
       <c r="O292" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.25">
@@ -24639,7 +24636,7 @@
         <v>2423</v>
       </c>
       <c r="O293" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.25">
@@ -24686,7 +24683,7 @@
         <v>2423</v>
       </c>
       <c r="O294" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.25">
@@ -24733,7 +24730,7 @@
         <v>2423</v>
       </c>
       <c r="O295" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="296" spans="1:15" x14ac:dyDescent="0.25">
@@ -24780,7 +24777,7 @@
         <v>2423</v>
       </c>
       <c r="O296" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.25">
@@ -24827,7 +24824,7 @@
         <v>2423</v>
       </c>
       <c r="O297" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.25">
@@ -24874,7 +24871,7 @@
         <v>2423</v>
       </c>
       <c r="O298" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.25">
@@ -24921,7 +24918,7 @@
         <v>2423</v>
       </c>
       <c r="O299" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.25">
@@ -24968,7 +24965,7 @@
         <v>2423</v>
       </c>
       <c r="O300" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.25">
@@ -25015,7 +25012,7 @@
         <v>2423</v>
       </c>
       <c r="O301" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.25">
@@ -25062,7 +25059,7 @@
         <v>2423</v>
       </c>
       <c r="O302" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.25">
@@ -25109,7 +25106,7 @@
         <v>2423</v>
       </c>
       <c r="O303" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.25">
@@ -25156,7 +25153,7 @@
         <v>2423</v>
       </c>
       <c r="O304" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.25">
@@ -25203,7 +25200,7 @@
         <v>2423</v>
       </c>
       <c r="O305" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="306" spans="1:15" x14ac:dyDescent="0.25">
@@ -25250,7 +25247,7 @@
         <v>2423</v>
       </c>
       <c r="O306" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.25">
@@ -25297,7 +25294,7 @@
         <v>2423</v>
       </c>
       <c r="O307" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.25">
@@ -25344,7 +25341,7 @@
         <v>2423</v>
       </c>
       <c r="O308" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.25">
@@ -25391,7 +25388,7 @@
         <v>2423</v>
       </c>
       <c r="O309" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.25">
@@ -25438,7 +25435,7 @@
         <v>2423</v>
       </c>
       <c r="O310" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.25">
@@ -25485,7 +25482,7 @@
         <v>2423</v>
       </c>
       <c r="O311" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="312" spans="1:15" x14ac:dyDescent="0.25">
@@ -25532,7 +25529,7 @@
         <v>2423</v>
       </c>
       <c r="O312" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="313" spans="1:15" x14ac:dyDescent="0.25">
@@ -25579,7 +25576,7 @@
         <v>2423</v>
       </c>
       <c r="O313" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.25">
@@ -25626,7 +25623,7 @@
         <v>2423</v>
       </c>
       <c r="O314" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="315" spans="1:15" x14ac:dyDescent="0.25">
@@ -25673,7 +25670,7 @@
         <v>2423</v>
       </c>
       <c r="O315" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.25">
@@ -25720,7 +25717,7 @@
         <v>2423</v>
       </c>
       <c r="O316" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="317" spans="1:15" x14ac:dyDescent="0.25">
@@ -25767,7 +25764,7 @@
         <v>2423</v>
       </c>
       <c r="O317" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="318" spans="1:15" x14ac:dyDescent="0.25">
@@ -25814,7 +25811,7 @@
         <v>2423</v>
       </c>
       <c r="O318" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="319" spans="1:15" x14ac:dyDescent="0.25">
@@ -25861,7 +25858,7 @@
         <v>2423</v>
       </c>
       <c r="O319" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="320" spans="1:15" x14ac:dyDescent="0.25">
@@ -25908,7 +25905,7 @@
         <v>2423</v>
       </c>
       <c r="O320" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="321" spans="1:15" x14ac:dyDescent="0.25">
@@ -25955,7 +25952,7 @@
         <v>2423</v>
       </c>
       <c r="O321" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.25">
@@ -26002,7 +25999,7 @@
         <v>2423</v>
       </c>
       <c r="O322" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="323" spans="1:15" x14ac:dyDescent="0.25">
@@ -26049,7 +26046,7 @@
         <v>2423</v>
       </c>
       <c r="O323" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="324" spans="1:15" x14ac:dyDescent="0.25">
@@ -26096,7 +26093,7 @@
         <v>2423</v>
       </c>
       <c r="O324" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="325" spans="1:15" x14ac:dyDescent="0.25">
@@ -26143,7 +26140,7 @@
         <v>2423</v>
       </c>
       <c r="O325" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="326" spans="1:15" x14ac:dyDescent="0.25">
@@ -26190,7 +26187,7 @@
         <v>2423</v>
       </c>
       <c r="O326" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="327" spans="1:15" x14ac:dyDescent="0.25">
@@ -26237,7 +26234,7 @@
         <v>2423</v>
       </c>
       <c r="O327" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="328" spans="1:15" x14ac:dyDescent="0.25">
@@ -26284,7 +26281,7 @@
         <v>2423</v>
       </c>
       <c r="O328" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="329" spans="1:15" x14ac:dyDescent="0.25">
@@ -26331,7 +26328,7 @@
         <v>2423</v>
       </c>
       <c r="O329" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="330" spans="1:15" x14ac:dyDescent="0.25">
@@ -26378,7 +26375,7 @@
         <v>2423</v>
       </c>
       <c r="O330" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="331" spans="1:15" x14ac:dyDescent="0.25">
@@ -26425,7 +26422,7 @@
         <v>2423</v>
       </c>
       <c r="O331" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="332" spans="1:15" x14ac:dyDescent="0.25">
@@ -26472,7 +26469,7 @@
         <v>2423</v>
       </c>
       <c r="O332" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="333" spans="1:15" x14ac:dyDescent="0.25">
@@ -26519,7 +26516,7 @@
         <v>2423</v>
       </c>
       <c r="O333" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="334" spans="1:15" x14ac:dyDescent="0.25">
@@ -26566,7 +26563,7 @@
         <v>2423</v>
       </c>
       <c r="O334" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.25">
@@ -26613,7 +26610,7 @@
         <v>2423</v>
       </c>
       <c r="O335" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="336" spans="1:15" x14ac:dyDescent="0.25">
@@ -26660,7 +26657,7 @@
         <v>2423</v>
       </c>
       <c r="O336" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.25">
@@ -26707,7 +26704,7 @@
         <v>2423</v>
       </c>
       <c r="O337" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="338" spans="1:15" x14ac:dyDescent="0.25">
@@ -26754,7 +26751,7 @@
         <v>2423</v>
       </c>
       <c r="O338" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.25">
@@ -26801,7 +26798,7 @@
         <v>2423</v>
       </c>
       <c r="O339" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="340" spans="1:15" x14ac:dyDescent="0.25">
@@ -26848,7 +26845,7 @@
         <v>2423</v>
       </c>
       <c r="O340" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="341" spans="1:15" x14ac:dyDescent="0.25">
@@ -26895,7 +26892,7 @@
         <v>2423</v>
       </c>
       <c r="O341" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.25">
@@ -26942,7 +26939,7 @@
         <v>2423</v>
       </c>
       <c r="O342" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.25">
@@ -26989,7 +26986,7 @@
         <v>2423</v>
       </c>
       <c r="O343" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.25">
@@ -27036,7 +27033,7 @@
         <v>2423</v>
       </c>
       <c r="O344" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="345" spans="1:15" x14ac:dyDescent="0.25">
@@ -27083,7 +27080,7 @@
         <v>2423</v>
       </c>
       <c r="O345" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="346" spans="1:15" x14ac:dyDescent="0.25">
@@ -27130,7 +27127,7 @@
         <v>2423</v>
       </c>
       <c r="O346" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.25">
@@ -27177,7 +27174,7 @@
         <v>2423</v>
       </c>
       <c r="O347" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.25">
@@ -27224,7 +27221,7 @@
         <v>2423</v>
       </c>
       <c r="O348" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.25">
@@ -27271,7 +27268,7 @@
         <v>2423</v>
       </c>
       <c r="O349" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.25">
@@ -27318,7 +27315,7 @@
         <v>2423</v>
       </c>
       <c r="O350" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.25">
@@ -27365,7 +27362,7 @@
         <v>2423</v>
       </c>
       <c r="O351" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.25">
@@ -27412,7 +27409,7 @@
         <v>2423</v>
       </c>
       <c r="O352" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.25">
@@ -27459,7 +27456,7 @@
         <v>2423</v>
       </c>
       <c r="O353" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.25">
@@ -27506,7 +27503,7 @@
         <v>2423</v>
       </c>
       <c r="O354" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.25">
@@ -27553,7 +27550,7 @@
         <v>2423</v>
       </c>
       <c r="O355" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="356" spans="1:15" x14ac:dyDescent="0.25">
@@ -27600,7 +27597,7 @@
         <v>2423</v>
       </c>
       <c r="O356" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="357" spans="1:15" x14ac:dyDescent="0.25">
@@ -27647,7 +27644,7 @@
         <v>2423</v>
       </c>
       <c r="O357" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="358" spans="1:15" x14ac:dyDescent="0.25">
@@ -27694,7 +27691,7 @@
         <v>2423</v>
       </c>
       <c r="O358" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="359" spans="1:15" x14ac:dyDescent="0.25">
@@ -27741,7 +27738,7 @@
         <v>2423</v>
       </c>
       <c r="O359" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="360" spans="1:15" x14ac:dyDescent="0.25">
@@ -27788,7 +27785,7 @@
         <v>2423</v>
       </c>
       <c r="O360" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="361" spans="1:15" x14ac:dyDescent="0.25">
@@ -27835,7 +27832,7 @@
         <v>2423</v>
       </c>
       <c r="O361" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="362" spans="1:15" x14ac:dyDescent="0.25">
@@ -27882,7 +27879,7 @@
         <v>2423</v>
       </c>
       <c r="O362" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="363" spans="1:15" x14ac:dyDescent="0.25">
@@ -27929,7 +27926,7 @@
         <v>2423</v>
       </c>
       <c r="O363" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="364" spans="1:15" x14ac:dyDescent="0.25">
@@ -27976,7 +27973,7 @@
         <v>2423</v>
       </c>
       <c r="O364" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="365" spans="1:15" x14ac:dyDescent="0.25">
@@ -28023,7 +28020,7 @@
         <v>2423</v>
       </c>
       <c r="O365" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="366" spans="1:15" x14ac:dyDescent="0.25">
@@ -28070,7 +28067,7 @@
         <v>2423</v>
       </c>
       <c r="O366" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="367" spans="1:15" x14ac:dyDescent="0.25">
@@ -28117,7 +28114,7 @@
         <v>2423</v>
       </c>
       <c r="O367" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="368" spans="1:15" x14ac:dyDescent="0.25">
@@ -28164,7 +28161,7 @@
         <v>2423</v>
       </c>
       <c r="O368" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="369" spans="1:15" x14ac:dyDescent="0.25">
@@ -28211,7 +28208,7 @@
         <v>2423</v>
       </c>
       <c r="O369" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="370" spans="1:15" x14ac:dyDescent="0.25">
@@ -28258,7 +28255,7 @@
         <v>2423</v>
       </c>
       <c r="O370" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="371" spans="1:15" x14ac:dyDescent="0.25">
@@ -28305,7 +28302,7 @@
         <v>2423</v>
       </c>
       <c r="O371" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="372" spans="1:15" x14ac:dyDescent="0.25">
@@ -28352,7 +28349,7 @@
         <v>2423</v>
       </c>
       <c r="O372" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="373" spans="1:15" x14ac:dyDescent="0.25">
@@ -28399,7 +28396,7 @@
         <v>2423</v>
       </c>
       <c r="O373" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="374" spans="1:15" x14ac:dyDescent="0.25">
@@ -28446,7 +28443,7 @@
         <v>2423</v>
       </c>
       <c r="O374" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="375" spans="1:15" x14ac:dyDescent="0.25">
@@ -28493,7 +28490,7 @@
         <v>2423</v>
       </c>
       <c r="O375" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="376" spans="1:15" x14ac:dyDescent="0.25">
@@ -28540,7 +28537,7 @@
         <v>2423</v>
       </c>
       <c r="O376" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="377" spans="1:15" x14ac:dyDescent="0.25">
@@ -28587,7 +28584,7 @@
         <v>2423</v>
       </c>
       <c r="O377" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="378" spans="1:15" x14ac:dyDescent="0.25">
@@ -28634,7 +28631,7 @@
         <v>2423</v>
       </c>
       <c r="O378" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="379" spans="1:15" x14ac:dyDescent="0.25">
@@ -28681,7 +28678,7 @@
         <v>2423</v>
       </c>
       <c r="O379" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="380" spans="1:15" x14ac:dyDescent="0.25">
@@ -28728,7 +28725,7 @@
         <v>2423</v>
       </c>
       <c r="O380" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="381" spans="1:15" x14ac:dyDescent="0.25">
@@ -28775,7 +28772,7 @@
         <v>2423</v>
       </c>
       <c r="O381" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="382" spans="1:15" x14ac:dyDescent="0.25">
@@ -28822,7 +28819,7 @@
         <v>2423</v>
       </c>
       <c r="O382" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="383" spans="1:15" x14ac:dyDescent="0.25">
@@ -28869,7 +28866,7 @@
         <v>2423</v>
       </c>
       <c r="O383" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="384" spans="1:15" x14ac:dyDescent="0.25">
@@ -28916,7 +28913,7 @@
         <v>2423</v>
       </c>
       <c r="O384" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="385" spans="1:15" x14ac:dyDescent="0.25">
@@ -28963,7 +28960,7 @@
         <v>2423</v>
       </c>
       <c r="O385" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="386" spans="1:15" x14ac:dyDescent="0.25">
@@ -29010,7 +29007,7 @@
         <v>2423</v>
       </c>
       <c r="O386" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="387" spans="1:15" x14ac:dyDescent="0.25">
@@ -29057,7 +29054,7 @@
         <v>2423</v>
       </c>
       <c r="O387" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="388" spans="1:15" x14ac:dyDescent="0.25">
@@ -29104,7 +29101,7 @@
         <v>2423</v>
       </c>
       <c r="O388" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="389" spans="1:15" x14ac:dyDescent="0.25">
@@ -29151,7 +29148,7 @@
         <v>2423</v>
       </c>
       <c r="O389" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="390" spans="1:15" x14ac:dyDescent="0.25">
@@ -29198,7 +29195,7 @@
         <v>2423</v>
       </c>
       <c r="O390" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="391" spans="1:15" x14ac:dyDescent="0.25">
@@ -29245,7 +29242,7 @@
         <v>2423</v>
       </c>
       <c r="O391" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="392" spans="1:15" x14ac:dyDescent="0.25">
@@ -29292,7 +29289,7 @@
         <v>2423</v>
       </c>
       <c r="O392" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="393" spans="1:15" x14ac:dyDescent="0.25">
@@ -29339,7 +29336,7 @@
         <v>2423</v>
       </c>
       <c r="O393" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="394" spans="1:15" x14ac:dyDescent="0.25">
@@ -29386,7 +29383,7 @@
         <v>2423</v>
       </c>
       <c r="O394" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="395" spans="1:15" x14ac:dyDescent="0.25">
@@ -29433,7 +29430,7 @@
         <v>2423</v>
       </c>
       <c r="O395" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="396" spans="1:15" x14ac:dyDescent="0.25">
@@ -29480,7 +29477,7 @@
         <v>2423</v>
       </c>
       <c r="O396" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="397" spans="1:15" x14ac:dyDescent="0.25">
@@ -29527,7 +29524,7 @@
         <v>2423</v>
       </c>
       <c r="O397" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="398" spans="1:15" x14ac:dyDescent="0.25">
@@ -29574,7 +29571,7 @@
         <v>2423</v>
       </c>
       <c r="O398" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="399" spans="1:15" x14ac:dyDescent="0.25">
@@ -29621,7 +29618,7 @@
         <v>2423</v>
       </c>
       <c r="O399" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="400" spans="1:15" x14ac:dyDescent="0.25">
@@ -29668,7 +29665,7 @@
         <v>2423</v>
       </c>
       <c r="O400" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="401" spans="1:15" x14ac:dyDescent="0.25">
@@ -29715,7 +29712,7 @@
         <v>2423</v>
       </c>
       <c r="O401" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="402" spans="1:15" x14ac:dyDescent="0.25">
@@ -29762,7 +29759,7 @@
         <v>2423</v>
       </c>
       <c r="O402" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="403" spans="1:15" x14ac:dyDescent="0.25">
@@ -29809,7 +29806,7 @@
         <v>2423</v>
       </c>
       <c r="O403" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="404" spans="1:15" x14ac:dyDescent="0.25">
@@ -29856,7 +29853,7 @@
         <v>2423</v>
       </c>
       <c r="O404" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="405" spans="1:15" x14ac:dyDescent="0.25">
@@ -29903,7 +29900,7 @@
         <v>2423</v>
       </c>
       <c r="O405" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="406" spans="1:15" x14ac:dyDescent="0.25">
@@ -29950,7 +29947,7 @@
         <v>2423</v>
       </c>
       <c r="O406" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="407" spans="1:15" x14ac:dyDescent="0.25">
@@ -29997,7 +29994,7 @@
         <v>2423</v>
       </c>
       <c r="O407" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="408" spans="1:15" x14ac:dyDescent="0.25">
@@ -30044,7 +30041,7 @@
         <v>2423</v>
       </c>
       <c r="O408" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="409" spans="1:15" x14ac:dyDescent="0.25">
@@ -30091,7 +30088,7 @@
         <v>2423</v>
       </c>
       <c r="O409" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="410" spans="1:15" x14ac:dyDescent="0.25">
@@ -30138,7 +30135,7 @@
         <v>2423</v>
       </c>
       <c r="O410" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="411" spans="1:15" x14ac:dyDescent="0.25">
@@ -30185,7 +30182,7 @@
         <v>2423</v>
       </c>
       <c r="O411" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="412" spans="1:15" x14ac:dyDescent="0.25">
@@ -30232,7 +30229,7 @@
         <v>2423</v>
       </c>
       <c r="O412" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="413" spans="1:15" x14ac:dyDescent="0.25">
@@ -30279,7 +30276,7 @@
         <v>2423</v>
       </c>
       <c r="O413" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="414" spans="1:15" x14ac:dyDescent="0.25">
@@ -30326,7 +30323,7 @@
         <v>2423</v>
       </c>
       <c r="O414" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="415" spans="1:15" x14ac:dyDescent="0.25">
@@ -30373,7 +30370,7 @@
         <v>2423</v>
       </c>
       <c r="O415" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="416" spans="1:15" x14ac:dyDescent="0.25">
@@ -30420,7 +30417,7 @@
         <v>2423</v>
       </c>
       <c r="O416" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="417" spans="1:15" x14ac:dyDescent="0.25">
@@ -30467,7 +30464,7 @@
         <v>2423</v>
       </c>
       <c r="O417" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="418" spans="1:15" x14ac:dyDescent="0.25">
@@ -30514,7 +30511,7 @@
         <v>2423</v>
       </c>
       <c r="O418" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="419" spans="1:15" x14ac:dyDescent="0.25">
@@ -30561,7 +30558,7 @@
         <v>2423</v>
       </c>
       <c r="O419" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="420" spans="1:15" x14ac:dyDescent="0.25">
@@ -30608,7 +30605,7 @@
         <v>2423</v>
       </c>
       <c r="O420" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="421" spans="1:15" x14ac:dyDescent="0.25">
@@ -30655,7 +30652,7 @@
         <v>2423</v>
       </c>
       <c r="O421" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="422" spans="1:15" x14ac:dyDescent="0.25">
@@ -30702,7 +30699,7 @@
         <v>2423</v>
       </c>
       <c r="O422" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="423" spans="1:15" x14ac:dyDescent="0.25">
@@ -30749,7 +30746,7 @@
         <v>2423</v>
       </c>
       <c r="O423" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="424" spans="1:15" x14ac:dyDescent="0.25">
@@ -30796,7 +30793,7 @@
         <v>2423</v>
       </c>
       <c r="O424" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="425" spans="1:15" x14ac:dyDescent="0.25">
@@ -30843,7 +30840,7 @@
         <v>2423</v>
       </c>
       <c r="O425" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="426" spans="1:15" x14ac:dyDescent="0.25">
@@ -30890,7 +30887,7 @@
         <v>2423</v>
       </c>
       <c r="O426" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="427" spans="1:15" x14ac:dyDescent="0.25">
@@ -30937,7 +30934,7 @@
         <v>2423</v>
       </c>
       <c r="O427" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="428" spans="1:15" x14ac:dyDescent="0.25">
@@ -30984,7 +30981,7 @@
         <v>2423</v>
       </c>
       <c r="O428" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="429" spans="1:15" x14ac:dyDescent="0.25">
@@ -31031,7 +31028,7 @@
         <v>2423</v>
       </c>
       <c r="O429" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="430" spans="1:15" x14ac:dyDescent="0.25">
@@ -31078,7 +31075,7 @@
         <v>2423</v>
       </c>
       <c r="O430" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="431" spans="1:15" x14ac:dyDescent="0.25">
@@ -31125,7 +31122,7 @@
         <v>2423</v>
       </c>
       <c r="O431" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="432" spans="1:15" x14ac:dyDescent="0.25">
@@ -31172,7 +31169,7 @@
         <v>2423</v>
       </c>
       <c r="O432" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="433" spans="1:15" x14ac:dyDescent="0.25">
@@ -31219,7 +31216,7 @@
         <v>2423</v>
       </c>
       <c r="O433" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="434" spans="1:15" x14ac:dyDescent="0.25">
@@ -31266,7 +31263,7 @@
         <v>2423</v>
       </c>
       <c r="O434" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="435" spans="1:15" x14ac:dyDescent="0.25">
@@ -31313,7 +31310,7 @@
         <v>2423</v>
       </c>
       <c r="O435" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="436" spans="1:15" x14ac:dyDescent="0.25">
@@ -31360,7 +31357,7 @@
         <v>2423</v>
       </c>
       <c r="O436" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="437" spans="1:15" x14ac:dyDescent="0.25">
@@ -31407,7 +31404,7 @@
         <v>2423</v>
       </c>
       <c r="O437" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="438" spans="1:15" x14ac:dyDescent="0.25">
@@ -31454,7 +31451,7 @@
         <v>2423</v>
       </c>
       <c r="O438" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="439" spans="1:15" x14ac:dyDescent="0.25">
@@ -31501,7 +31498,7 @@
         <v>2423</v>
       </c>
       <c r="O439" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="440" spans="1:15" x14ac:dyDescent="0.25">
@@ -31548,7 +31545,7 @@
         <v>2423</v>
       </c>
       <c r="O440" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="441" spans="1:15" x14ac:dyDescent="0.25">
@@ -31595,7 +31592,7 @@
         <v>2423</v>
       </c>
       <c r="O441" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="442" spans="1:15" x14ac:dyDescent="0.25">
@@ -31642,7 +31639,7 @@
         <v>2423</v>
       </c>
       <c r="O442" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="443" spans="1:15" x14ac:dyDescent="0.25">
@@ -31689,7 +31686,7 @@
         <v>2423</v>
       </c>
       <c r="O443" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="444" spans="1:15" x14ac:dyDescent="0.25">
@@ -31736,7 +31733,7 @@
         <v>2423</v>
       </c>
       <c r="O444" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="445" spans="1:15" x14ac:dyDescent="0.25">
@@ -31783,7 +31780,7 @@
         <v>2423</v>
       </c>
       <c r="O445" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="446" spans="1:15" x14ac:dyDescent="0.25">
@@ -31830,7 +31827,7 @@
         <v>2423</v>
       </c>
       <c r="O446" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="447" spans="1:15" x14ac:dyDescent="0.25">
@@ -31877,7 +31874,7 @@
         <v>2423</v>
       </c>
       <c r="O447" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="448" spans="1:15" x14ac:dyDescent="0.25">
@@ -31924,7 +31921,7 @@
         <v>2423</v>
       </c>
       <c r="O448" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="449" spans="1:15" x14ac:dyDescent="0.25">
@@ -31971,7 +31968,7 @@
         <v>2423</v>
       </c>
       <c r="O449" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="450" spans="1:15" x14ac:dyDescent="0.25">
@@ -32018,7 +32015,7 @@
         <v>2423</v>
       </c>
       <c r="O450" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="451" spans="1:15" x14ac:dyDescent="0.25">
@@ -32065,7 +32062,7 @@
         <v>2423</v>
       </c>
       <c r="O451" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="452" spans="1:15" x14ac:dyDescent="0.25">
@@ -32112,7 +32109,7 @@
         <v>2423</v>
       </c>
       <c r="O452" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="453" spans="1:15" x14ac:dyDescent="0.25">
@@ -32159,7 +32156,7 @@
         <v>2423</v>
       </c>
       <c r="O453" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="454" spans="1:15" x14ac:dyDescent="0.25">
@@ -32206,7 +32203,7 @@
         <v>2423</v>
       </c>
       <c r="O454" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="455" spans="1:15" x14ac:dyDescent="0.25">
@@ -32253,7 +32250,7 @@
         <v>2423</v>
       </c>
       <c r="O455" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="456" spans="1:15" x14ac:dyDescent="0.25">
@@ -32300,7 +32297,7 @@
         <v>2423</v>
       </c>
       <c r="O456" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="457" spans="1:15" x14ac:dyDescent="0.25">
@@ -32347,7 +32344,7 @@
         <v>2423</v>
       </c>
       <c r="O457" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="458" spans="1:15" x14ac:dyDescent="0.25">
@@ -32394,7 +32391,7 @@
         <v>2423</v>
       </c>
       <c r="O458" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="459" spans="1:15" x14ac:dyDescent="0.25">
@@ -32441,7 +32438,7 @@
         <v>2423</v>
       </c>
       <c r="O459" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="460" spans="1:15" x14ac:dyDescent="0.25">
@@ -32488,7 +32485,7 @@
         <v>2423</v>
       </c>
       <c r="O460" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="461" spans="1:15" x14ac:dyDescent="0.25">
@@ -32535,7 +32532,7 @@
         <v>2423</v>
       </c>
       <c r="O461" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="462" spans="1:15" x14ac:dyDescent="0.25">
@@ -32582,7 +32579,7 @@
         <v>2423</v>
       </c>
       <c r="O462" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="463" spans="1:15" x14ac:dyDescent="0.25">
@@ -32629,7 +32626,7 @@
         <v>2423</v>
       </c>
       <c r="O463" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="464" spans="1:15" x14ac:dyDescent="0.25">
@@ -32676,7 +32673,7 @@
         <v>2423</v>
       </c>
       <c r="O464" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="465" spans="1:15" x14ac:dyDescent="0.25">
@@ -32723,7 +32720,7 @@
         <v>2423</v>
       </c>
       <c r="O465" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="466" spans="1:15" x14ac:dyDescent="0.25">
@@ -32770,7 +32767,7 @@
         <v>2423</v>
       </c>
       <c r="O466" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="467" spans="1:15" x14ac:dyDescent="0.25">
@@ -32817,7 +32814,7 @@
         <v>2423</v>
       </c>
       <c r="O467" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="468" spans="1:15" x14ac:dyDescent="0.25">
@@ -32864,7 +32861,7 @@
         <v>2423</v>
       </c>
       <c r="O468" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="469" spans="1:15" x14ac:dyDescent="0.25">
@@ -32911,7 +32908,7 @@
         <v>2423</v>
       </c>
       <c r="O469" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="470" spans="1:15" x14ac:dyDescent="0.25">
@@ -32958,7 +32955,7 @@
         <v>2423</v>
       </c>
       <c r="O470" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="471" spans="1:15" x14ac:dyDescent="0.25">
@@ -33005,7 +33002,7 @@
         <v>2423</v>
       </c>
       <c r="O471" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="472" spans="1:15" x14ac:dyDescent="0.25">
@@ -33052,7 +33049,7 @@
         <v>2423</v>
       </c>
       <c r="O472" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="473" spans="1:15" x14ac:dyDescent="0.25">
@@ -33099,7 +33096,7 @@
         <v>2423</v>
       </c>
       <c r="O473" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="474" spans="1:15" x14ac:dyDescent="0.25">
@@ -33146,7 +33143,7 @@
         <v>2423</v>
       </c>
       <c r="O474" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="475" spans="1:15" x14ac:dyDescent="0.25">
@@ -33193,7 +33190,7 @@
         <v>2423</v>
       </c>
       <c r="O475" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="476" spans="1:15" x14ac:dyDescent="0.25">
@@ -33240,7 +33237,7 @@
         <v>2423</v>
       </c>
       <c r="O476" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="477" spans="1:15" x14ac:dyDescent="0.25">
@@ -33287,7 +33284,7 @@
         <v>2423</v>
       </c>
       <c r="O477" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="478" spans="1:15" x14ac:dyDescent="0.25">
@@ -33334,7 +33331,7 @@
         <v>2423</v>
       </c>
       <c r="O478" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="479" spans="1:15" x14ac:dyDescent="0.25">
@@ -33381,7 +33378,7 @@
         <v>2423</v>
       </c>
       <c r="O479" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="480" spans="1:15" x14ac:dyDescent="0.25">
@@ -33428,7 +33425,7 @@
         <v>2423</v>
       </c>
       <c r="O480" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="481" spans="1:15" x14ac:dyDescent="0.25">
@@ -33475,7 +33472,7 @@
         <v>2423</v>
       </c>
       <c r="O481" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="482" spans="1:15" x14ac:dyDescent="0.25">
@@ -33522,7 +33519,7 @@
         <v>2423</v>
       </c>
       <c r="O482" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="483" spans="1:15" x14ac:dyDescent="0.25">
@@ -33569,7 +33566,7 @@
         <v>2423</v>
       </c>
       <c r="O483" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="484" spans="1:15" x14ac:dyDescent="0.25">
@@ -33616,7 +33613,7 @@
         <v>2423</v>
       </c>
       <c r="O484" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="485" spans="1:15" x14ac:dyDescent="0.25">
@@ -33663,7 +33660,7 @@
         <v>2423</v>
       </c>
       <c r="O485" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="486" spans="1:15" x14ac:dyDescent="0.25">
@@ -33710,7 +33707,7 @@
         <v>2423</v>
       </c>
       <c r="O486" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="487" spans="1:15" x14ac:dyDescent="0.25">
@@ -33757,7 +33754,7 @@
         <v>2423</v>
       </c>
       <c r="O487" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="488" spans="1:15" x14ac:dyDescent="0.25">
@@ -33804,7 +33801,7 @@
         <v>2423</v>
       </c>
       <c r="O488" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="489" spans="1:15" x14ac:dyDescent="0.25">
@@ -33851,7 +33848,7 @@
         <v>2423</v>
       </c>
       <c r="O489" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="490" spans="1:15" x14ac:dyDescent="0.25">
@@ -33898,7 +33895,7 @@
         <v>2423</v>
       </c>
       <c r="O490" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="491" spans="1:15" x14ac:dyDescent="0.25">
@@ -33945,7 +33942,7 @@
         <v>2423</v>
       </c>
       <c r="O491" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="492" spans="1:15" x14ac:dyDescent="0.25">
@@ -33992,7 +33989,7 @@
         <v>2423</v>
       </c>
       <c r="O492" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="493" spans="1:15" x14ac:dyDescent="0.25">
@@ -34039,7 +34036,7 @@
         <v>2423</v>
       </c>
       <c r="O493" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="494" spans="1:15" x14ac:dyDescent="0.25">
@@ -34086,7 +34083,7 @@
         <v>2423</v>
       </c>
       <c r="O494" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="495" spans="1:15" x14ac:dyDescent="0.25">
@@ -34133,7 +34130,7 @@
         <v>2423</v>
       </c>
       <c r="O495" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="496" spans="1:15" x14ac:dyDescent="0.25">
@@ -34180,7 +34177,7 @@
         <v>2423</v>
       </c>
       <c r="O496" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="497" spans="1:15" x14ac:dyDescent="0.25">
@@ -34227,7 +34224,7 @@
         <v>2423</v>
       </c>
       <c r="O497" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="498" spans="1:15" x14ac:dyDescent="0.25">
@@ -34274,7 +34271,7 @@
         <v>2423</v>
       </c>
       <c r="O498" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="499" spans="1:15" x14ac:dyDescent="0.25">
@@ -34321,7 +34318,7 @@
         <v>2423</v>
       </c>
       <c r="O499" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="500" spans="1:15" x14ac:dyDescent="0.25">
@@ -34368,7 +34365,7 @@
         <v>2423</v>
       </c>
       <c r="O500" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="501" spans="1:15" x14ac:dyDescent="0.25">
@@ -34415,7 +34412,7 @@
         <v>2423</v>
       </c>
       <c r="O501" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="502" spans="1:15" x14ac:dyDescent="0.25">
@@ -34462,7 +34459,7 @@
         <v>2423</v>
       </c>
       <c r="O502" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="503" spans="1:15" x14ac:dyDescent="0.25">
@@ -34509,7 +34506,7 @@
         <v>2423</v>
       </c>
       <c r="O503" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="504" spans="1:15" x14ac:dyDescent="0.25">
@@ -34556,7 +34553,7 @@
         <v>2423</v>
       </c>
       <c r="O504" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="505" spans="1:15" x14ac:dyDescent="0.25">
@@ -34603,7 +34600,7 @@
         <v>2423</v>
       </c>
       <c r="O505" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="506" spans="1:15" x14ac:dyDescent="0.25">
@@ -34650,7 +34647,7 @@
         <v>2423</v>
       </c>
       <c r="O506" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="507" spans="1:15" x14ac:dyDescent="0.25">
@@ -34697,7 +34694,7 @@
         <v>2423</v>
       </c>
       <c r="O507" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="508" spans="1:15" x14ac:dyDescent="0.25">
@@ -34744,7 +34741,7 @@
         <v>2423</v>
       </c>
       <c r="O508" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="509" spans="1:15" x14ac:dyDescent="0.25">
@@ -34791,7 +34788,7 @@
         <v>2423</v>
       </c>
       <c r="O509" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="510" spans="1:15" x14ac:dyDescent="0.25">
@@ -34838,7 +34835,7 @@
         <v>2423</v>
       </c>
       <c r="O510" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="511" spans="1:15" x14ac:dyDescent="0.25">
@@ -34885,7 +34882,7 @@
         <v>2423</v>
       </c>
       <c r="O511" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="512" spans="1:15" x14ac:dyDescent="0.25">
@@ -34932,7 +34929,7 @@
         <v>2423</v>
       </c>
       <c r="O512" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="513" spans="1:15" x14ac:dyDescent="0.25">
@@ -34979,7 +34976,7 @@
         <v>2423</v>
       </c>
       <c r="O513" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="514" spans="1:15" x14ac:dyDescent="0.25">
@@ -35026,7 +35023,7 @@
         <v>2423</v>
       </c>
       <c r="O514" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="515" spans="1:15" x14ac:dyDescent="0.25">
@@ -35073,7 +35070,7 @@
         <v>2423</v>
       </c>
       <c r="O515" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="516" spans="1:15" x14ac:dyDescent="0.25">
@@ -35120,7 +35117,7 @@
         <v>2423</v>
       </c>
       <c r="O516" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="517" spans="1:15" x14ac:dyDescent="0.25">
@@ -35167,7 +35164,7 @@
         <v>2423</v>
       </c>
       <c r="O517" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="518" spans="1:15" x14ac:dyDescent="0.25">
@@ -35214,7 +35211,7 @@
         <v>2423</v>
       </c>
       <c r="O518" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="519" spans="1:15" x14ac:dyDescent="0.25">
@@ -35261,7 +35258,7 @@
         <v>2423</v>
       </c>
       <c r="O519" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="520" spans="1:15" x14ac:dyDescent="0.25">
@@ -35308,7 +35305,7 @@
         <v>2423</v>
       </c>
       <c r="O520" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="521" spans="1:15" x14ac:dyDescent="0.25">
@@ -35355,7 +35352,7 @@
         <v>2423</v>
       </c>
       <c r="O521" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="522" spans="1:15" x14ac:dyDescent="0.25">
@@ -35402,7 +35399,7 @@
         <v>2423</v>
       </c>
       <c r="O522" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="523" spans="1:15" x14ac:dyDescent="0.25">
@@ -35449,7 +35446,7 @@
         <v>2423</v>
       </c>
       <c r="O523" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="524" spans="1:15" x14ac:dyDescent="0.25">
@@ -35496,7 +35493,7 @@
         <v>2423</v>
       </c>
       <c r="O524" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="525" spans="1:15" x14ac:dyDescent="0.25">
@@ -35543,7 +35540,7 @@
         <v>2423</v>
       </c>
       <c r="O525" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="526" spans="1:15" x14ac:dyDescent="0.25">
@@ -35590,7 +35587,7 @@
         <v>2423</v>
       </c>
       <c r="O526" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="527" spans="1:15" x14ac:dyDescent="0.25">
@@ -35637,7 +35634,7 @@
         <v>2423</v>
       </c>
       <c r="O527" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="528" spans="1:15" x14ac:dyDescent="0.25">
@@ -35684,7 +35681,7 @@
         <v>2423</v>
       </c>
       <c r="O528" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="529" spans="1:15" x14ac:dyDescent="0.25">
@@ -35731,7 +35728,7 @@
         <v>2423</v>
       </c>
       <c r="O529" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="530" spans="1:15" x14ac:dyDescent="0.25">
@@ -35778,7 +35775,7 @@
         <v>2423</v>
       </c>
       <c r="O530" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="531" spans="1:15" x14ac:dyDescent="0.25">
@@ -35825,7 +35822,7 @@
         <v>2423</v>
       </c>
       <c r="O531" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="532" spans="1:15" x14ac:dyDescent="0.25">
@@ -35872,7 +35869,7 @@
         <v>2423</v>
       </c>
       <c r="O532" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="533" spans="1:15" x14ac:dyDescent="0.25">
@@ -35919,7 +35916,7 @@
         <v>2423</v>
       </c>
       <c r="O533" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="534" spans="1:15" x14ac:dyDescent="0.25">
@@ -35966,7 +35963,7 @@
         <v>2423</v>
       </c>
       <c r="O534" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="535" spans="1:15" x14ac:dyDescent="0.25">
@@ -36013,7 +36010,7 @@
         <v>2423</v>
       </c>
       <c r="O535" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="536" spans="1:15" x14ac:dyDescent="0.25">
@@ -36060,7 +36057,7 @@
         <v>2423</v>
       </c>
       <c r="O536" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="537" spans="1:15" x14ac:dyDescent="0.25">
@@ -36107,7 +36104,7 @@
         <v>2423</v>
       </c>
       <c r="O537" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="538" spans="1:15" x14ac:dyDescent="0.25">
@@ -36154,7 +36151,7 @@
         <v>2423</v>
       </c>
       <c r="O538" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="539" spans="1:15" x14ac:dyDescent="0.25">
@@ -36201,7 +36198,7 @@
         <v>2423</v>
       </c>
       <c r="O539" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="540" spans="1:15" x14ac:dyDescent="0.25">
@@ -36248,7 +36245,7 @@
         <v>2423</v>
       </c>
       <c r="O540" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="541" spans="1:15" x14ac:dyDescent="0.25">
@@ -36295,7 +36292,7 @@
         <v>2423</v>
       </c>
       <c r="O541" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="542" spans="1:15" x14ac:dyDescent="0.25">
@@ -36342,7 +36339,7 @@
         <v>2423</v>
       </c>
       <c r="O542" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="543" spans="1:15" x14ac:dyDescent="0.25">
@@ -36389,7 +36386,7 @@
         <v>2423</v>
       </c>
       <c r="O543" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="544" spans="1:15" x14ac:dyDescent="0.25">
@@ -36436,7 +36433,7 @@
         <v>2423</v>
       </c>
       <c r="O544" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="545" spans="1:15" x14ac:dyDescent="0.25">
@@ -36483,7 +36480,7 @@
         <v>2423</v>
       </c>
       <c r="O545" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="546" spans="1:15" x14ac:dyDescent="0.25">
@@ -36530,7 +36527,7 @@
         <v>2423</v>
       </c>
       <c r="O546" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="547" spans="1:15" x14ac:dyDescent="0.25">
@@ -36577,7 +36574,7 @@
         <v>2423</v>
       </c>
       <c r="O547" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="548" spans="1:15" x14ac:dyDescent="0.25">
@@ -36624,7 +36621,7 @@
         <v>2423</v>
       </c>
       <c r="O548" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="549" spans="1:15" x14ac:dyDescent="0.25">
@@ -36671,7 +36668,7 @@
         <v>2423</v>
       </c>
       <c r="O549" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="550" spans="1:15" x14ac:dyDescent="0.25">
@@ -36718,7 +36715,7 @@
         <v>2423</v>
       </c>
       <c r="O550" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="551" spans="1:15" x14ac:dyDescent="0.25">
@@ -36765,7 +36762,7 @@
         <v>2423</v>
       </c>
       <c r="O551" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="552" spans="1:15" x14ac:dyDescent="0.25">
@@ -36812,7 +36809,7 @@
         <v>2423</v>
       </c>
       <c r="O552" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="553" spans="1:15" x14ac:dyDescent="0.25">
@@ -36859,7 +36856,7 @@
         <v>2423</v>
       </c>
       <c r="O553" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="554" spans="1:15" x14ac:dyDescent="0.25">
@@ -36906,7 +36903,7 @@
         <v>2423</v>
       </c>
       <c r="O554" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="555" spans="1:15" x14ac:dyDescent="0.25">
@@ -36953,7 +36950,7 @@
         <v>2423</v>
       </c>
       <c r="O555" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="556" spans="1:15" x14ac:dyDescent="0.25">
@@ -37000,7 +36997,7 @@
         <v>2423</v>
       </c>
       <c r="O556" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="557" spans="1:15" x14ac:dyDescent="0.25">
@@ -37047,7 +37044,7 @@
         <v>2423</v>
       </c>
       <c r="O557" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="558" spans="1:15" x14ac:dyDescent="0.25">
@@ -37094,7 +37091,7 @@
         <v>2423</v>
       </c>
       <c r="O558" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="559" spans="1:15" x14ac:dyDescent="0.25">
@@ -37141,7 +37138,7 @@
         <v>2423</v>
       </c>
       <c r="O559" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="560" spans="1:15" x14ac:dyDescent="0.25">
@@ -37188,7 +37185,7 @@
         <v>2423</v>
       </c>
       <c r="O560" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="561" spans="1:15" x14ac:dyDescent="0.25">
@@ -37235,7 +37232,7 @@
         <v>2423</v>
       </c>
       <c r="O561" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="562" spans="1:15" x14ac:dyDescent="0.25">
@@ -37282,7 +37279,7 @@
         <v>2423</v>
       </c>
       <c r="O562" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="563" spans="1:15" x14ac:dyDescent="0.25">
@@ -37329,7 +37326,7 @@
         <v>2423</v>
       </c>
       <c r="O563" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="564" spans="1:15" x14ac:dyDescent="0.25">
@@ -37376,7 +37373,7 @@
         <v>2423</v>
       </c>
       <c r="O564" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="565" spans="1:15" x14ac:dyDescent="0.25">
@@ -37423,7 +37420,7 @@
         <v>2423</v>
       </c>
       <c r="O565" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="566" spans="1:15" x14ac:dyDescent="0.25">
@@ -37470,7 +37467,7 @@
         <v>2423</v>
       </c>
       <c r="O566" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="567" spans="1:15" x14ac:dyDescent="0.25">
@@ -37517,7 +37514,7 @@
         <v>2423</v>
       </c>
       <c r="O567" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="568" spans="1:15" x14ac:dyDescent="0.25">
@@ -37564,7 +37561,7 @@
         <v>2423</v>
       </c>
       <c r="O568" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="569" spans="1:15" x14ac:dyDescent="0.25">
@@ -37611,7 +37608,7 @@
         <v>2423</v>
       </c>
       <c r="O569" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="570" spans="1:15" x14ac:dyDescent="0.25">
@@ -37658,7 +37655,7 @@
         <v>2423</v>
       </c>
       <c r="O570" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="571" spans="1:15" x14ac:dyDescent="0.25">
@@ -37705,7 +37702,7 @@
         <v>2423</v>
       </c>
       <c r="O571" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="572" spans="1:15" x14ac:dyDescent="0.25">
@@ -37752,7 +37749,7 @@
         <v>2423</v>
       </c>
       <c r="O572" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="573" spans="1:15" x14ac:dyDescent="0.25">
@@ -37799,7 +37796,7 @@
         <v>2423</v>
       </c>
       <c r="O573" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="574" spans="1:15" x14ac:dyDescent="0.25">
@@ -37846,7 +37843,7 @@
         <v>2423</v>
       </c>
       <c r="O574" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="575" spans="1:15" x14ac:dyDescent="0.25">
@@ -37893,7 +37890,7 @@
         <v>2423</v>
       </c>
       <c r="O575" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="576" spans="1:15" x14ac:dyDescent="0.25">
@@ -37940,7 +37937,7 @@
         <v>2423</v>
       </c>
       <c r="O576" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="577" spans="1:15" x14ac:dyDescent="0.25">
@@ -37987,7 +37984,7 @@
         <v>2423</v>
       </c>
       <c r="O577" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="578" spans="1:15" x14ac:dyDescent="0.25">
@@ -38034,7 +38031,7 @@
         <v>2423</v>
       </c>
       <c r="O578" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="579" spans="1:15" x14ac:dyDescent="0.25">
@@ -38081,7 +38078,7 @@
         <v>2423</v>
       </c>
       <c r="O579" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="580" spans="1:15" x14ac:dyDescent="0.25">
@@ -38128,7 +38125,7 @@
         <v>2423</v>
       </c>
       <c r="O580" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="581" spans="1:15" x14ac:dyDescent="0.25">
@@ -38175,7 +38172,7 @@
         <v>2423</v>
       </c>
       <c r="O581" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="582" spans="1:15" x14ac:dyDescent="0.25">
@@ -38222,7 +38219,7 @@
         <v>2423</v>
       </c>
       <c r="O582" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="583" spans="1:15" x14ac:dyDescent="0.25">
@@ -38269,7 +38266,7 @@
         <v>2423</v>
       </c>
       <c r="O583" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="584" spans="1:15" x14ac:dyDescent="0.25">
@@ -38316,7 +38313,7 @@
         <v>2423</v>
       </c>
       <c r="O584" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="585" spans="1:15" x14ac:dyDescent="0.25">
@@ -38363,7 +38360,7 @@
         <v>2423</v>
       </c>
       <c r="O585" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="586" spans="1:15" x14ac:dyDescent="0.25">
@@ -38410,7 +38407,7 @@
         <v>2423</v>
       </c>
       <c r="O586" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="587" spans="1:15" x14ac:dyDescent="0.25">
@@ -38457,7 +38454,7 @@
         <v>2423</v>
       </c>
       <c r="O587" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="588" spans="1:15" x14ac:dyDescent="0.25">
@@ -38504,7 +38501,7 @@
         <v>2423</v>
       </c>
       <c r="O588" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="589" spans="1:15" x14ac:dyDescent="0.25">
@@ -38551,7 +38548,7 @@
         <v>2423</v>
       </c>
       <c r="O589" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="590" spans="1:15" x14ac:dyDescent="0.25">
@@ -38598,7 +38595,7 @@
         <v>2423</v>
       </c>
       <c r="O590" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="591" spans="1:15" x14ac:dyDescent="0.25">
@@ -38645,7 +38642,7 @@
         <v>2423</v>
       </c>
       <c r="O591" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="592" spans="1:15" x14ac:dyDescent="0.25">
@@ -38692,7 +38689,7 @@
         <v>2423</v>
       </c>
       <c r="O592" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="593" spans="1:15" x14ac:dyDescent="0.25">
@@ -38739,7 +38736,7 @@
         <v>2423</v>
       </c>
       <c r="O593" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="594" spans="1:15" x14ac:dyDescent="0.25">
@@ -38786,7 +38783,7 @@
         <v>2423</v>
       </c>
       <c r="O594" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="595" spans="1:15" x14ac:dyDescent="0.25">
@@ -38833,7 +38830,7 @@
         <v>2423</v>
       </c>
       <c r="O595" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="596" spans="1:15" x14ac:dyDescent="0.25">
@@ -38880,7 +38877,7 @@
         <v>2423</v>
       </c>
       <c r="O596" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="597" spans="1:15" x14ac:dyDescent="0.25">
@@ -38927,7 +38924,7 @@
         <v>2423</v>
       </c>
       <c r="O597" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="598" spans="1:15" x14ac:dyDescent="0.25">
@@ -38974,7 +38971,7 @@
         <v>2423</v>
       </c>
       <c r="O598" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="599" spans="1:15" x14ac:dyDescent="0.25">
@@ -39021,7 +39018,7 @@
         <v>2423</v>
       </c>
       <c r="O599" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="600" spans="1:15" x14ac:dyDescent="0.25">
@@ -39068,7 +39065,7 @@
         <v>2423</v>
       </c>
       <c r="O600" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="601" spans="1:15" x14ac:dyDescent="0.25">
@@ -39115,7 +39112,7 @@
         <v>2423</v>
       </c>
       <c r="O601" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="602" spans="1:15" x14ac:dyDescent="0.25">
@@ -39162,7 +39159,7 @@
         <v>2423</v>
       </c>
       <c r="O602" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="603" spans="1:15" x14ac:dyDescent="0.25">
@@ -39209,7 +39206,7 @@
         <v>2423</v>
       </c>
       <c r="O603" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="604" spans="1:15" x14ac:dyDescent="0.25">
@@ -39256,7 +39253,7 @@
         <v>2423</v>
       </c>
       <c r="O604" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="605" spans="1:15" x14ac:dyDescent="0.25">
@@ -39303,7 +39300,7 @@
         <v>2423</v>
       </c>
       <c r="O605" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="606" spans="1:15" x14ac:dyDescent="0.25">
@@ -39350,7 +39347,7 @@
         <v>2423</v>
       </c>
       <c r="O606" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="607" spans="1:15" x14ac:dyDescent="0.25">
@@ -39397,7 +39394,7 @@
         <v>2423</v>
       </c>
       <c r="O607" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="608" spans="1:15" x14ac:dyDescent="0.25">
@@ -39444,7 +39441,7 @@
         <v>2423</v>
       </c>
       <c r="O608" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="609" spans="1:15" x14ac:dyDescent="0.25">
@@ -39491,7 +39488,7 @@
         <v>2423</v>
       </c>
       <c r="O609" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="610" spans="1:15" x14ac:dyDescent="0.25">
@@ -39538,7 +39535,7 @@
         <v>2423</v>
       </c>
       <c r="O610" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="611" spans="1:15" x14ac:dyDescent="0.25">
@@ -39585,7 +39582,7 @@
         <v>2423</v>
       </c>
       <c r="O611" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="612" spans="1:15" x14ac:dyDescent="0.25">
@@ -39632,7 +39629,7 @@
         <v>2423</v>
       </c>
       <c r="O612" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="613" spans="1:15" x14ac:dyDescent="0.25">
@@ -39679,7 +39676,7 @@
         <v>2423</v>
       </c>
       <c r="O613" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="614" spans="1:15" x14ac:dyDescent="0.25">
@@ -39726,7 +39723,7 @@
         <v>2423</v>
       </c>
       <c r="O614" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="615" spans="1:15" x14ac:dyDescent="0.25">
@@ -39773,7 +39770,7 @@
         <v>2423</v>
       </c>
       <c r="O615" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="616" spans="1:15" x14ac:dyDescent="0.25">
@@ -39820,7 +39817,7 @@
         <v>2423</v>
       </c>
       <c r="O616" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="617" spans="1:15" x14ac:dyDescent="0.25">
@@ -39867,7 +39864,7 @@
         <v>2423</v>
       </c>
       <c r="O617" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="618" spans="1:15" x14ac:dyDescent="0.25">
@@ -39914,7 +39911,7 @@
         <v>2423</v>
       </c>
       <c r="O618" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="619" spans="1:15" x14ac:dyDescent="0.25">
@@ -39961,7 +39958,7 @@
         <v>2423</v>
       </c>
       <c r="O619" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="620" spans="1:15" x14ac:dyDescent="0.25">
@@ -40008,7 +40005,7 @@
         <v>2423</v>
       </c>
       <c r="O620" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="621" spans="1:15" x14ac:dyDescent="0.25">
@@ -40055,7 +40052,7 @@
         <v>2423</v>
       </c>
       <c r="O621" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="622" spans="1:15" x14ac:dyDescent="0.25">
@@ -40102,7 +40099,7 @@
         <v>2423</v>
       </c>
       <c r="O622" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="623" spans="1:15" x14ac:dyDescent="0.25">
@@ -40149,7 +40146,7 @@
         <v>2423</v>
       </c>
       <c r="O623" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="624" spans="1:15" x14ac:dyDescent="0.25">
@@ -40196,7 +40193,7 @@
         <v>2423</v>
       </c>
       <c r="O624" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="625" spans="1:15" x14ac:dyDescent="0.25">
@@ -40243,7 +40240,7 @@
         <v>2423</v>
       </c>
       <c r="O625" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="626" spans="1:15" x14ac:dyDescent="0.25">
@@ -40290,7 +40287,7 @@
         <v>2423</v>
       </c>
       <c r="O626" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="627" spans="1:15" x14ac:dyDescent="0.25">
@@ -40337,7 +40334,7 @@
         <v>2423</v>
       </c>
       <c r="O627" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="628" spans="1:15" x14ac:dyDescent="0.25">
@@ -40384,7 +40381,7 @@
         <v>2423</v>
       </c>
       <c r="O628" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="629" spans="1:15" x14ac:dyDescent="0.25">
@@ -40431,7 +40428,7 @@
         <v>2423</v>
       </c>
       <c r="O629" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="630" spans="1:15" x14ac:dyDescent="0.25">
@@ -40478,7 +40475,7 @@
         <v>2423</v>
       </c>
       <c r="O630" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="631" spans="1:15" x14ac:dyDescent="0.25">
@@ -40525,7 +40522,7 @@
         <v>2423</v>
       </c>
       <c r="O631" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="632" spans="1:15" x14ac:dyDescent="0.25">
@@ -40572,7 +40569,7 @@
         <v>2423</v>
       </c>
       <c r="O632" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="633" spans="1:15" x14ac:dyDescent="0.25">
@@ -40619,7 +40616,7 @@
         <v>2423</v>
       </c>
       <c r="O633" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="634" spans="1:15" x14ac:dyDescent="0.25">
@@ -40666,7 +40663,7 @@
         <v>2423</v>
       </c>
       <c r="O634" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="635" spans="1:15" x14ac:dyDescent="0.25">
@@ -40713,7 +40710,7 @@
         <v>2423</v>
       </c>
       <c r="O635" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="636" spans="1:15" x14ac:dyDescent="0.25">
@@ -40760,7 +40757,7 @@
         <v>2423</v>
       </c>
       <c r="O636" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="637" spans="1:15" x14ac:dyDescent="0.25">
@@ -40807,7 +40804,7 @@
         <v>2423</v>
       </c>
       <c r="O637" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="638" spans="1:15" x14ac:dyDescent="0.25">
@@ -40854,7 +40851,7 @@
         <v>2423</v>
       </c>
       <c r="O638" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="639" spans="1:15" x14ac:dyDescent="0.25">
@@ -40901,7 +40898,7 @@
         <v>2423</v>
       </c>
       <c r="O639" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="640" spans="1:15" x14ac:dyDescent="0.25">
@@ -40948,7 +40945,7 @@
         <v>2423</v>
       </c>
       <c r="O640" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="641" spans="1:15" x14ac:dyDescent="0.25">
@@ -40995,7 +40992,7 @@
         <v>2423</v>
       </c>
       <c r="O641" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="642" spans="1:15" x14ac:dyDescent="0.25">
@@ -41042,7 +41039,7 @@
         <v>2423</v>
       </c>
       <c r="O642" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="643" spans="1:15" x14ac:dyDescent="0.25">
@@ -41089,7 +41086,7 @@
         <v>2423</v>
       </c>
       <c r="O643" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="644" spans="1:15" x14ac:dyDescent="0.25">
@@ -41136,7 +41133,7 @@
         <v>2423</v>
       </c>
       <c r="O644" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="645" spans="1:15" x14ac:dyDescent="0.25">
@@ -41183,7 +41180,7 @@
         <v>2423</v>
       </c>
       <c r="O645" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="646" spans="1:15" x14ac:dyDescent="0.25">
@@ -41230,7 +41227,7 @@
         <v>2423</v>
       </c>
       <c r="O646" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="647" spans="1:15" x14ac:dyDescent="0.25">
@@ -41277,7 +41274,7 @@
         <v>2423</v>
       </c>
       <c r="O647" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="648" spans="1:15" x14ac:dyDescent="0.25">
@@ -41324,7 +41321,7 @@
         <v>2423</v>
       </c>
       <c r="O648" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="649" spans="1:15" x14ac:dyDescent="0.25">
@@ -41371,7 +41368,7 @@
         <v>2423</v>
       </c>
       <c r="O649" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="650" spans="1:15" x14ac:dyDescent="0.25">
@@ -41418,7 +41415,7 @@
         <v>2423</v>
       </c>
       <c r="O650" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="651" spans="1:15" x14ac:dyDescent="0.25">
@@ -41465,7 +41462,7 @@
         <v>2423</v>
       </c>
       <c r="O651" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="652" spans="1:15" x14ac:dyDescent="0.25">
@@ -41512,7 +41509,7 @@
         <v>2423</v>
       </c>
       <c r="O652" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="653" spans="1:15" x14ac:dyDescent="0.25">
@@ -41559,7 +41556,7 @@
         <v>2423</v>
       </c>
       <c r="O653" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="654" spans="1:15" x14ac:dyDescent="0.25">
@@ -41606,7 +41603,7 @@
         <v>2423</v>
       </c>
       <c r="O654" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="655" spans="1:15" x14ac:dyDescent="0.25">
@@ -41653,7 +41650,7 @@
         <v>2423</v>
       </c>
       <c r="O655" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="656" spans="1:15" x14ac:dyDescent="0.25">
@@ -41700,7 +41697,7 @@
         <v>2423</v>
       </c>
       <c r="O656" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="657" spans="1:15" x14ac:dyDescent="0.25">
@@ -41747,7 +41744,7 @@
         <v>2423</v>
       </c>
       <c r="O657" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="658" spans="1:15" x14ac:dyDescent="0.25">
@@ -41794,7 +41791,7 @@
         <v>2423</v>
       </c>
       <c r="O658" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="659" spans="1:15" x14ac:dyDescent="0.25">
@@ -41841,7 +41838,7 @@
         <v>2423</v>
       </c>
       <c r="O659" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="660" spans="1:15" x14ac:dyDescent="0.25">
@@ -41888,7 +41885,7 @@
         <v>2423</v>
       </c>
       <c r="O660" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="661" spans="1:15" x14ac:dyDescent="0.25">
@@ -41935,7 +41932,7 @@
         <v>2423</v>
       </c>
       <c r="O661" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="662" spans="1:15" x14ac:dyDescent="0.25">
@@ -41982,7 +41979,7 @@
         <v>2423</v>
       </c>
       <c r="O662" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="663" spans="1:15" x14ac:dyDescent="0.25">
@@ -42029,7 +42026,7 @@
         <v>2423</v>
       </c>
       <c r="O663" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="664" spans="1:15" x14ac:dyDescent="0.25">
@@ -42076,7 +42073,7 @@
         <v>2423</v>
       </c>
       <c r="O664" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="665" spans="1:15" x14ac:dyDescent="0.25">
@@ -42123,7 +42120,7 @@
         <v>2423</v>
       </c>
       <c r="O665" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="666" spans="1:15" x14ac:dyDescent="0.25">
@@ -42170,7 +42167,7 @@
         <v>2423</v>
       </c>
       <c r="O666" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="667" spans="1:15" x14ac:dyDescent="0.25">
@@ -42217,7 +42214,7 @@
         <v>2423</v>
       </c>
       <c r="O667" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="668" spans="1:15" x14ac:dyDescent="0.25">
@@ -42264,7 +42261,7 @@
         <v>2423</v>
       </c>
       <c r="O668" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="669" spans="1:15" x14ac:dyDescent="0.25">
@@ -42311,7 +42308,7 @@
         <v>2423</v>
       </c>
       <c r="O669" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="670" spans="1:15" x14ac:dyDescent="0.25">
@@ -42358,7 +42355,7 @@
         <v>2423</v>
       </c>
       <c r="O670" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="671" spans="1:15" x14ac:dyDescent="0.25">
@@ -42405,7 +42402,7 @@
         <v>2423</v>
       </c>
       <c r="O671" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="672" spans="1:15" x14ac:dyDescent="0.25">
@@ -42452,7 +42449,7 @@
         <v>2423</v>
       </c>
       <c r="O672" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="673" spans="1:15" x14ac:dyDescent="0.25">
@@ -42499,7 +42496,7 @@
         <v>2423</v>
       </c>
       <c r="O673" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="674" spans="1:15" x14ac:dyDescent="0.25">
@@ -42546,7 +42543,7 @@
         <v>2423</v>
       </c>
       <c r="O674" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="675" spans="1:15" x14ac:dyDescent="0.25">
@@ -42593,7 +42590,7 @@
         <v>2423</v>
       </c>
       <c r="O675" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="676" spans="1:15" x14ac:dyDescent="0.25">
@@ -42640,7 +42637,7 @@
         <v>2423</v>
       </c>
       <c r="O676" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="677" spans="1:15" x14ac:dyDescent="0.25">
@@ -42687,7 +42684,7 @@
         <v>2423</v>
       </c>
       <c r="O677" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="678" spans="1:15" x14ac:dyDescent="0.25">
@@ -42734,7 +42731,7 @@
         <v>2423</v>
       </c>
       <c r="O678" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="679" spans="1:15" x14ac:dyDescent="0.25">
@@ -42781,7 +42778,7 @@
         <v>2423</v>
       </c>
       <c r="O679" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="680" spans="1:15" x14ac:dyDescent="0.25">
@@ -42828,7 +42825,7 @@
         <v>2423</v>
       </c>
       <c r="O680" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="681" spans="1:15" x14ac:dyDescent="0.25">
@@ -42875,7 +42872,7 @@
         <v>2423</v>
       </c>
       <c r="O681" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="682" spans="1:15" x14ac:dyDescent="0.25">
@@ -42922,7 +42919,7 @@
         <v>2423</v>
       </c>
       <c r="O682" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="683" spans="1:15" x14ac:dyDescent="0.25">
@@ -42969,7 +42966,7 @@
         <v>2423</v>
       </c>
       <c r="O683" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="684" spans="1:15" x14ac:dyDescent="0.25">
@@ -43016,7 +43013,7 @@
         <v>2423</v>
       </c>
       <c r="O684" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="685" spans="1:15" x14ac:dyDescent="0.25">
@@ -43063,7 +43060,7 @@
         <v>2423</v>
       </c>
       <c r="O685" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="686" spans="1:15" x14ac:dyDescent="0.25">
@@ -43110,7 +43107,7 @@
         <v>2423</v>
       </c>
       <c r="O686" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="687" spans="1:15" x14ac:dyDescent="0.25">
@@ -43157,7 +43154,7 @@
         <v>2423</v>
       </c>
       <c r="O687" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="688" spans="1:15" x14ac:dyDescent="0.25">
@@ -43204,7 +43201,7 @@
         <v>2423</v>
       </c>
       <c r="O688" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="689" spans="1:15" x14ac:dyDescent="0.25">
@@ -43251,7 +43248,7 @@
         <v>2423</v>
       </c>
       <c r="O689" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="690" spans="1:15" x14ac:dyDescent="0.25">
@@ -43298,7 +43295,7 @@
         <v>2423</v>
       </c>
       <c r="O690" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="691" spans="1:15" x14ac:dyDescent="0.25">
@@ -43345,7 +43342,7 @@
         <v>2423</v>
       </c>
       <c r="O691" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="692" spans="1:15" x14ac:dyDescent="0.25">
@@ -43392,7 +43389,7 @@
         <v>2423</v>
       </c>
       <c r="O692" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="693" spans="1:15" x14ac:dyDescent="0.25">
@@ -43439,7 +43436,7 @@
         <v>2423</v>
       </c>
       <c r="O693" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="694" spans="1:15" x14ac:dyDescent="0.25">
@@ -43486,7 +43483,7 @@
         <v>2423</v>
       </c>
       <c r="O694" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="695" spans="1:15" x14ac:dyDescent="0.25">
@@ -43533,7 +43530,7 @@
         <v>2423</v>
       </c>
       <c r="O695" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="696" spans="1:15" x14ac:dyDescent="0.25">
@@ -43580,7 +43577,7 @@
         <v>2423</v>
       </c>
       <c r="O696" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="697" spans="1:15" x14ac:dyDescent="0.25">
@@ -43627,7 +43624,7 @@
         <v>2423</v>
       </c>
       <c r="O697" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="698" spans="1:15" x14ac:dyDescent="0.25">
@@ -43674,7 +43671,7 @@
         <v>2423</v>
       </c>
       <c r="O698" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="699" spans="1:15" x14ac:dyDescent="0.25">
@@ -43721,7 +43718,7 @@
         <v>2423</v>
       </c>
       <c r="O699" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="700" spans="1:15" x14ac:dyDescent="0.25">
@@ -43768,7 +43765,7 @@
         <v>2423</v>
       </c>
       <c r="O700" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="701" spans="1:15" x14ac:dyDescent="0.25">
@@ -43815,7 +43812,7 @@
         <v>2423</v>
       </c>
       <c r="O701" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="702" spans="1:15" x14ac:dyDescent="0.25">
@@ -43862,7 +43859,7 @@
         <v>2423</v>
       </c>
       <c r="O702" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="703" spans="1:15" x14ac:dyDescent="0.25">
@@ -43909,7 +43906,7 @@
         <v>2423</v>
       </c>
       <c r="O703" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="704" spans="1:15" x14ac:dyDescent="0.25">
@@ -43956,7 +43953,7 @@
         <v>2423</v>
       </c>
       <c r="O704" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="705" spans="1:15" x14ac:dyDescent="0.25">
@@ -44003,7 +44000,7 @@
         <v>2423</v>
       </c>
       <c r="O705" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="706" spans="1:15" x14ac:dyDescent="0.25">
@@ -44050,7 +44047,7 @@
         <v>2423</v>
       </c>
       <c r="O706" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="707" spans="1:15" x14ac:dyDescent="0.25">
@@ -44097,7 +44094,7 @@
         <v>2423</v>
       </c>
       <c r="O707" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="708" spans="1:15" x14ac:dyDescent="0.25">
@@ -44144,7 +44141,7 @@
         <v>2423</v>
       </c>
       <c r="O708" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="709" spans="1:15" x14ac:dyDescent="0.25">
@@ -44191,7 +44188,7 @@
         <v>2423</v>
       </c>
       <c r="O709" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="710" spans="1:15" x14ac:dyDescent="0.25">
@@ -44238,7 +44235,7 @@
         <v>2423</v>
       </c>
       <c r="O710" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="711" spans="1:15" x14ac:dyDescent="0.25">
@@ -44285,7 +44282,7 @@
         <v>2423</v>
       </c>
       <c r="O711" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="712" spans="1:15" x14ac:dyDescent="0.25">
@@ -44332,7 +44329,7 @@
         <v>2423</v>
       </c>
       <c r="O712" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="713" spans="1:15" x14ac:dyDescent="0.25">
@@ -44379,7 +44376,7 @@
         <v>2423</v>
       </c>
       <c r="O713" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="714" spans="1:15" x14ac:dyDescent="0.25">
@@ -44426,7 +44423,7 @@
         <v>2423</v>
       </c>
       <c r="O714" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="715" spans="1:15" x14ac:dyDescent="0.25">
@@ -44473,7 +44470,7 @@
         <v>2423</v>
       </c>
       <c r="O715" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="716" spans="1:15" x14ac:dyDescent="0.25">
@@ -44520,7 +44517,7 @@
         <v>2423</v>
       </c>
       <c r="O716" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="717" spans="1:15" x14ac:dyDescent="0.25">
@@ -44567,7 +44564,7 @@
         <v>2423</v>
       </c>
       <c r="O717" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="718" spans="1:15" x14ac:dyDescent="0.25">
@@ -44614,7 +44611,7 @@
         <v>2423</v>
       </c>
       <c r="O718" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="719" spans="1:15" x14ac:dyDescent="0.25">
@@ -44661,7 +44658,7 @@
         <v>2423</v>
       </c>
       <c r="O719" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="720" spans="1:15" x14ac:dyDescent="0.25">
@@ -44708,7 +44705,7 @@
         <v>2423</v>
       </c>
       <c r="O720" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="721" spans="1:15" x14ac:dyDescent="0.25">
@@ -44755,7 +44752,7 @@
         <v>2423</v>
       </c>
       <c r="O721" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="722" spans="1:15" x14ac:dyDescent="0.25">
@@ -44802,7 +44799,7 @@
         <v>2423</v>
       </c>
       <c r="O722" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="723" spans="1:15" x14ac:dyDescent="0.25">
@@ -44849,7 +44846,7 @@
         <v>2423</v>
       </c>
       <c r="O723" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="724" spans="1:15" x14ac:dyDescent="0.25">
@@ -44896,7 +44893,7 @@
         <v>2423</v>
       </c>
       <c r="O724" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="725" spans="1:15" x14ac:dyDescent="0.25">
@@ -44943,7 +44940,7 @@
         <v>2423</v>
       </c>
       <c r="O725" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="726" spans="1:15" x14ac:dyDescent="0.25">
@@ -44990,7 +44987,7 @@
         <v>2423</v>
       </c>
       <c r="O726" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="727" spans="1:15" x14ac:dyDescent="0.25">
@@ -45037,7 +45034,7 @@
         <v>2423</v>
       </c>
       <c r="O727" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="728" spans="1:15" x14ac:dyDescent="0.25">
@@ -45084,7 +45081,7 @@
         <v>2423</v>
       </c>
       <c r="O728" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="729" spans="1:15" x14ac:dyDescent="0.25">
@@ -45131,7 +45128,7 @@
         <v>2423</v>
       </c>
       <c r="O729" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="730" spans="1:15" x14ac:dyDescent="0.25">
@@ -45178,7 +45175,7 @@
         <v>2423</v>
       </c>
       <c r="O730" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="731" spans="1:15" x14ac:dyDescent="0.25">
@@ -45225,7 +45222,7 @@
         <v>2423</v>
       </c>
       <c r="O731" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="732" spans="1:15" x14ac:dyDescent="0.25">
@@ -45272,7 +45269,7 @@
         <v>2423</v>
       </c>
       <c r="O732" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="733" spans="1:15" x14ac:dyDescent="0.25">
@@ -45319,7 +45316,7 @@
         <v>2423</v>
       </c>
       <c r="O733" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="734" spans="1:15" x14ac:dyDescent="0.25">
@@ -45366,7 +45363,7 @@
         <v>2423</v>
       </c>
       <c r="O734" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="735" spans="1:15" x14ac:dyDescent="0.25">
@@ -45413,7 +45410,7 @@
         <v>2423</v>
       </c>
       <c r="O735" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="736" spans="1:15" x14ac:dyDescent="0.25">
@@ -45460,7 +45457,7 @@
         <v>2423</v>
       </c>
       <c r="O736" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="737" spans="1:15" x14ac:dyDescent="0.25">
@@ -45507,7 +45504,7 @@
         <v>2423</v>
       </c>
       <c r="O737" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="738" spans="1:15" x14ac:dyDescent="0.25">
@@ -45554,7 +45551,7 @@
         <v>2423</v>
       </c>
       <c r="O738" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="739" spans="1:15" x14ac:dyDescent="0.25">
@@ -45601,7 +45598,7 @@
         <v>2423</v>
       </c>
       <c r="O739" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="740" spans="1:15" x14ac:dyDescent="0.25">
@@ -45648,7 +45645,7 @@
         <v>2423</v>
       </c>
       <c r="O740" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="741" spans="1:15" x14ac:dyDescent="0.25">
@@ -45695,7 +45692,7 @@
         <v>2423</v>
       </c>
       <c r="O741" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="742" spans="1:15" x14ac:dyDescent="0.25">
@@ -45742,7 +45739,7 @@
         <v>2423</v>
       </c>
       <c r="O742" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="743" spans="1:15" x14ac:dyDescent="0.25">
@@ -45789,7 +45786,7 @@
         <v>2423</v>
       </c>
       <c r="O743" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="744" spans="1:15" x14ac:dyDescent="0.25">
@@ -45836,7 +45833,7 @@
         <v>2423</v>
       </c>
       <c r="O744" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="745" spans="1:15" x14ac:dyDescent="0.25">
@@ -45883,7 +45880,7 @@
         <v>2423</v>
       </c>
       <c r="O745" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="746" spans="1:15" x14ac:dyDescent="0.25">
@@ -45930,7 +45927,7 @@
         <v>2423</v>
       </c>
       <c r="O746" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="747" spans="1:15" x14ac:dyDescent="0.25">
@@ -45977,7 +45974,7 @@
         <v>2423</v>
       </c>
       <c r="O747" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="748" spans="1:15" x14ac:dyDescent="0.25">
@@ -46024,7 +46021,7 @@
         <v>2423</v>
       </c>
       <c r="O748" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="749" spans="1:15" x14ac:dyDescent="0.25">
@@ -46071,7 +46068,7 @@
         <v>2423</v>
       </c>
       <c r="O749" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="750" spans="1:15" x14ac:dyDescent="0.25">
@@ -46118,7 +46115,7 @@
         <v>2423</v>
       </c>
       <c r="O750" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="751" spans="1:15" x14ac:dyDescent="0.25">
@@ -46165,7 +46162,7 @@
         <v>2423</v>
       </c>
       <c r="O751" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="752" spans="1:15" x14ac:dyDescent="0.25">
@@ -46212,7 +46209,7 @@
         <v>2423</v>
       </c>
       <c r="O752" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="753" spans="1:15" x14ac:dyDescent="0.25">
@@ -46259,7 +46256,7 @@
         <v>2423</v>
       </c>
       <c r="O753" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="754" spans="1:15" x14ac:dyDescent="0.25">
@@ -46306,7 +46303,7 @@
         <v>2423</v>
       </c>
       <c r="O754" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="755" spans="1:15" x14ac:dyDescent="0.25">
@@ -46353,7 +46350,7 @@
         <v>2423</v>
       </c>
       <c r="O755" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="756" spans="1:15" x14ac:dyDescent="0.25">
@@ -46400,7 +46397,7 @@
         <v>2423</v>
       </c>
       <c r="O756" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="757" spans="1:15" x14ac:dyDescent="0.25">
@@ -46447,7 +46444,7 @@
         <v>2423</v>
       </c>
       <c r="O757" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="758" spans="1:15" x14ac:dyDescent="0.25">
@@ -46494,7 +46491,7 @@
         <v>2423</v>
       </c>
       <c r="O758" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="759" spans="1:15" x14ac:dyDescent="0.25">
@@ -46541,7 +46538,7 @@
         <v>2423</v>
       </c>
       <c r="O759" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="760" spans="1:15" x14ac:dyDescent="0.25">
@@ -46588,7 +46585,7 @@
         <v>2423</v>
       </c>
       <c r="O760" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="761" spans="1:15" x14ac:dyDescent="0.25">
@@ -46635,7 +46632,7 @@
         <v>2423</v>
       </c>
       <c r="O761" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="762" spans="1:15" x14ac:dyDescent="0.25">
@@ -46682,7 +46679,7 @@
         <v>2423</v>
       </c>
       <c r="O762" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="763" spans="1:15" x14ac:dyDescent="0.25">
@@ -46729,7 +46726,7 @@
         <v>2423</v>
       </c>
       <c r="O763" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="764" spans="1:15" x14ac:dyDescent="0.25">
@@ -46776,7 +46773,7 @@
         <v>2423</v>
       </c>
       <c r="O764" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="765" spans="1:15" x14ac:dyDescent="0.25">
@@ -46823,7 +46820,7 @@
         <v>2423</v>
       </c>
       <c r="O765" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="766" spans="1:15" x14ac:dyDescent="0.25">
@@ -46870,7 +46867,7 @@
         <v>2423</v>
       </c>
       <c r="O766" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="767" spans="1:15" x14ac:dyDescent="0.25">
@@ -46917,7 +46914,7 @@
         <v>2423</v>
       </c>
       <c r="O767" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="768" spans="1:15" x14ac:dyDescent="0.25">
@@ -46964,7 +46961,7 @@
         <v>2423</v>
       </c>
       <c r="O768" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="769" spans="1:15" x14ac:dyDescent="0.25">
@@ -47011,7 +47008,7 @@
         <v>2423</v>
       </c>
       <c r="O769" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="770" spans="1:15" x14ac:dyDescent="0.25">
@@ -47058,7 +47055,7 @@
         <v>2423</v>
       </c>
       <c r="O770" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="771" spans="1:15" x14ac:dyDescent="0.25">
@@ -47105,7 +47102,7 @@
         <v>2423</v>
       </c>
       <c r="O771" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="772" spans="1:15" x14ac:dyDescent="0.25">
@@ -47152,7 +47149,7 @@
         <v>2423</v>
       </c>
       <c r="O772" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="773" spans="1:15" x14ac:dyDescent="0.25">
@@ -47199,7 +47196,7 @@
         <v>2423</v>
       </c>
       <c r="O773" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="774" spans="1:15" x14ac:dyDescent="0.25">
@@ -47246,7 +47243,7 @@
         <v>2423</v>
       </c>
       <c r="O774" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="775" spans="1:15" x14ac:dyDescent="0.25">
@@ -47293,7 +47290,7 @@
         <v>2423</v>
       </c>
       <c r="O775" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="776" spans="1:15" x14ac:dyDescent="0.25">
@@ -47340,7 +47337,7 @@
         <v>2423</v>
       </c>
       <c r="O776" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="777" spans="1:15" x14ac:dyDescent="0.25">
@@ -47387,7 +47384,7 @@
         <v>2423</v>
       </c>
       <c r="O777" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="778" spans="1:15" x14ac:dyDescent="0.25">
@@ -47434,7 +47431,7 @@
         <v>2423</v>
       </c>
       <c r="O778" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="779" spans="1:15" x14ac:dyDescent="0.25">
@@ -47481,7 +47478,7 @@
         <v>2423</v>
       </c>
       <c r="O779" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="780" spans="1:15" x14ac:dyDescent="0.25">
@@ -47528,7 +47525,7 @@
         <v>2423</v>
       </c>
       <c r="O780" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="781" spans="1:15" x14ac:dyDescent="0.25">
@@ -47575,7 +47572,7 @@
         <v>2423</v>
       </c>
       <c r="O781" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="782" spans="1:15" x14ac:dyDescent="0.25">
@@ -47622,7 +47619,7 @@
         <v>2423</v>
       </c>
       <c r="O782" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="783" spans="1:15" x14ac:dyDescent="0.25">
@@ -47669,7 +47666,7 @@
         <v>2423</v>
       </c>
       <c r="O783" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="784" spans="1:15" x14ac:dyDescent="0.25">
@@ -47716,7 +47713,7 @@
         <v>2423</v>
       </c>
       <c r="O784" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="785" spans="1:15" x14ac:dyDescent="0.25">
@@ -47763,7 +47760,7 @@
         <v>2423</v>
       </c>
       <c r="O785" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="786" spans="1:15" x14ac:dyDescent="0.25">
@@ -47810,7 +47807,7 @@
         <v>2423</v>
       </c>
       <c r="O786" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="787" spans="1:15" x14ac:dyDescent="0.25">
@@ -47857,7 +47854,7 @@
         <v>2423</v>
       </c>
       <c r="O787" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="788" spans="1:15" x14ac:dyDescent="0.25">
@@ -47904,7 +47901,7 @@
         <v>2423</v>
       </c>
       <c r="O788" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="789" spans="1:15" x14ac:dyDescent="0.25">
@@ -47951,7 +47948,7 @@
         <v>2423</v>
       </c>
       <c r="O789" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="790" spans="1:15" x14ac:dyDescent="0.25">
@@ -47998,7 +47995,7 @@
         <v>2423</v>
       </c>
       <c r="O790" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="791" spans="1:15" x14ac:dyDescent="0.25">
@@ -48045,7 +48042,7 @@
         <v>2423</v>
       </c>
       <c r="O791" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="792" spans="1:15" x14ac:dyDescent="0.25">
@@ -48092,7 +48089,7 @@
         <v>2423</v>
       </c>
       <c r="O792" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="793" spans="1:15" x14ac:dyDescent="0.25">
@@ -48139,7 +48136,7 @@
         <v>2423</v>
       </c>
       <c r="O793" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="794" spans="1:15" x14ac:dyDescent="0.25">
@@ -48186,7 +48183,7 @@
         <v>2423</v>
       </c>
       <c r="O794" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="795" spans="1:15" x14ac:dyDescent="0.25">
@@ -48233,7 +48230,7 @@
         <v>2423</v>
       </c>
       <c r="O795" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="796" spans="1:15" x14ac:dyDescent="0.25">
@@ -48280,7 +48277,7 @@
         <v>2423</v>
       </c>
       <c r="O796" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="797" spans="1:15" x14ac:dyDescent="0.25">
@@ -48327,7 +48324,7 @@
         <v>2423</v>
       </c>
       <c r="O797" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="798" spans="1:15" x14ac:dyDescent="0.25">
@@ -48374,7 +48371,7 @@
         <v>2423</v>
       </c>
       <c r="O798" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="799" spans="1:15" x14ac:dyDescent="0.25">
@@ -48421,7 +48418,7 @@
         <v>2423</v>
       </c>
       <c r="O799" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="800" spans="1:15" x14ac:dyDescent="0.25">
@@ -48468,7 +48465,7 @@
         <v>2423</v>
       </c>
       <c r="O800" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="801" spans="1:15" x14ac:dyDescent="0.25">
@@ -48515,7 +48512,7 @@
         <v>2423</v>
       </c>
       <c r="O801" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="802" spans="1:15" x14ac:dyDescent="0.25">
@@ -48562,7 +48559,7 @@
         <v>2423</v>
       </c>
       <c r="O802" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="803" spans="1:15" x14ac:dyDescent="0.25">
@@ -48609,7 +48606,7 @@
         <v>2423</v>
       </c>
       <c r="O803" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="804" spans="1:15" x14ac:dyDescent="0.25">
@@ -48656,7 +48653,7 @@
         <v>2423</v>
       </c>
       <c r="O804" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="805" spans="1:15" x14ac:dyDescent="0.25">
@@ -48703,7 +48700,7 @@
         <v>2423</v>
       </c>
       <c r="O805" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="806" spans="1:15" x14ac:dyDescent="0.25">
@@ -48750,7 +48747,7 @@
         <v>2423</v>
       </c>
       <c r="O806" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="807" spans="1:15" x14ac:dyDescent="0.25">
@@ -48797,7 +48794,7 @@
         <v>2423</v>
       </c>
       <c r="O807" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="808" spans="1:15" x14ac:dyDescent="0.25">
@@ -48844,7 +48841,7 @@
         <v>2423</v>
       </c>
       <c r="O808" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="809" spans="1:15" x14ac:dyDescent="0.25">
@@ -48891,7 +48888,7 @@
         <v>2423</v>
       </c>
       <c r="O809" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="810" spans="1:15" x14ac:dyDescent="0.25">
@@ -48938,7 +48935,7 @@
         <v>2423</v>
       </c>
       <c r="O810" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="811" spans="1:15" x14ac:dyDescent="0.25">
@@ -48985,7 +48982,7 @@
         <v>2423</v>
       </c>
       <c r="O811" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="812" spans="1:15" x14ac:dyDescent="0.25">
@@ -49032,7 +49029,7 @@
         <v>2423</v>
       </c>
       <c r="O812" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="813" spans="1:15" x14ac:dyDescent="0.25">
@@ -49079,7 +49076,7 @@
         <v>2423</v>
       </c>
       <c r="O813" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="814" spans="1:15" x14ac:dyDescent="0.25">
@@ -49126,7 +49123,7 @@
         <v>2423</v>
       </c>
       <c r="O814" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="815" spans="1:15" x14ac:dyDescent="0.25">
@@ -49173,7 +49170,7 @@
         <v>2423</v>
       </c>
       <c r="O815" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="816" spans="1:15" x14ac:dyDescent="0.25">
@@ -49220,7 +49217,7 @@
         <v>2423</v>
       </c>
       <c r="O816" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="817" spans="1:15" x14ac:dyDescent="0.25">
@@ -49267,7 +49264,7 @@
         <v>2423</v>
       </c>
       <c r="O817" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="818" spans="1:15" x14ac:dyDescent="0.25">
@@ -49314,7 +49311,7 @@
         <v>2423</v>
       </c>
       <c r="O818" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="819" spans="1:15" x14ac:dyDescent="0.25">
@@ -49361,7 +49358,7 @@
         <v>2423</v>
       </c>
       <c r="O819" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="820" spans="1:15" x14ac:dyDescent="0.25">
@@ -49408,7 +49405,7 @@
         <v>2423</v>
       </c>
       <c r="O820" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="821" spans="1:15" x14ac:dyDescent="0.25">
@@ -49455,7 +49452,7 @@
         <v>2423</v>
       </c>
       <c r="O821" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="822" spans="1:15" x14ac:dyDescent="0.25">
@@ -49502,7 +49499,7 @@
         <v>2423</v>
       </c>
       <c r="O822" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="823" spans="1:15" x14ac:dyDescent="0.25">
@@ -49549,7 +49546,7 @@
         <v>2423</v>
       </c>
       <c r="O823" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="824" spans="1:15" x14ac:dyDescent="0.25">
@@ -49596,7 +49593,7 @@
         <v>2423</v>
       </c>
       <c r="O824" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="825" spans="1:15" x14ac:dyDescent="0.25">
@@ -49643,7 +49640,7 @@
         <v>2423</v>
       </c>
       <c r="O825" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="826" spans="1:15" x14ac:dyDescent="0.25">
@@ -49690,7 +49687,7 @@
         <v>2423</v>
       </c>
       <c r="O826" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="827" spans="1:15" x14ac:dyDescent="0.25">
@@ -49737,7 +49734,7 @@
         <v>2423</v>
       </c>
       <c r="O827" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="828" spans="1:15" x14ac:dyDescent="0.25">
@@ -49784,7 +49781,7 @@
         <v>2423</v>
       </c>
       <c r="O828" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="829" spans="1:15" x14ac:dyDescent="0.25">
@@ -49831,7 +49828,7 @@
         <v>2423</v>
       </c>
       <c r="O829" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="830" spans="1:15" x14ac:dyDescent="0.25">
@@ -49878,7 +49875,7 @@
         <v>2423</v>
       </c>
       <c r="O830" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="831" spans="1:15" x14ac:dyDescent="0.25">
@@ -49925,7 +49922,7 @@
         <v>2423</v>
       </c>
       <c r="O831" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="832" spans="1:15" x14ac:dyDescent="0.25">
@@ -49972,7 +49969,7 @@
         <v>2423</v>
       </c>
       <c r="O832" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="833" spans="1:15" x14ac:dyDescent="0.25">
@@ -50019,7 +50016,7 @@
         <v>2423</v>
       </c>
       <c r="O833" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="834" spans="1:15" x14ac:dyDescent="0.25">
@@ -50066,7 +50063,7 @@
         <v>2423</v>
       </c>
       <c r="O834" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="835" spans="1:15" x14ac:dyDescent="0.25">
@@ -50113,7 +50110,7 @@
         <v>2423</v>
       </c>
       <c r="O835" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="836" spans="1:15" x14ac:dyDescent="0.25">
@@ -50160,7 +50157,7 @@
         <v>2423</v>
       </c>
       <c r="O836" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="837" spans="1:15" x14ac:dyDescent="0.25">
@@ -50207,7 +50204,7 @@
         <v>2423</v>
       </c>
       <c r="O837" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="838" spans="1:15" x14ac:dyDescent="0.25">
@@ -50254,7 +50251,7 @@
         <v>2423</v>
       </c>
       <c r="O838" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="839" spans="1:15" x14ac:dyDescent="0.25">
@@ -50301,7 +50298,7 @@
         <v>2423</v>
       </c>
       <c r="O839" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="840" spans="1:15" x14ac:dyDescent="0.25">
@@ -50348,7 +50345,7 @@
         <v>2423</v>
       </c>
       <c r="O840" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="841" spans="1:15" x14ac:dyDescent="0.25">
@@ -50395,7 +50392,7 @@
         <v>2423</v>
       </c>
       <c r="O841" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="842" spans="1:15" x14ac:dyDescent="0.25">
@@ -50442,7 +50439,7 @@
         <v>2423</v>
       </c>
       <c r="O842" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="843" spans="1:15" x14ac:dyDescent="0.25">
@@ -50489,7 +50486,7 @@
         <v>2423</v>
       </c>
       <c r="O843" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="844" spans="1:15" x14ac:dyDescent="0.25">
@@ -50536,7 +50533,7 @@
         <v>2423</v>
       </c>
       <c r="O844" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="845" spans="1:15" x14ac:dyDescent="0.25">
@@ -50583,7 +50580,7 @@
         <v>2423</v>
       </c>
       <c r="O845" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="846" spans="1:15" x14ac:dyDescent="0.25">
@@ -50630,7 +50627,7 @@
         <v>2423</v>
       </c>
       <c r="O846" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="847" spans="1:15" x14ac:dyDescent="0.25">
@@ -50677,7 +50674,7 @@
         <v>2423</v>
       </c>
       <c r="O847" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="848" spans="1:15" x14ac:dyDescent="0.25">
@@ -50724,7 +50721,7 @@
         <v>2423</v>
       </c>
       <c r="O848" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="849" spans="1:15" x14ac:dyDescent="0.25">
@@ -50771,7 +50768,7 @@
         <v>2423</v>
       </c>
       <c r="O849" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="850" spans="1:15" x14ac:dyDescent="0.25">
@@ -50818,7 +50815,7 @@
         <v>2423</v>
       </c>
       <c r="O850" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="851" spans="1:15" x14ac:dyDescent="0.25">
@@ -50865,7 +50862,7 @@
         <v>2423</v>
       </c>
       <c r="O851" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="852" spans="1:15" x14ac:dyDescent="0.25">
@@ -50912,7 +50909,7 @@
         <v>2423</v>
       </c>
       <c r="O852" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="853" spans="1:15" x14ac:dyDescent="0.25">
@@ -50959,7 +50956,7 @@
         <v>2423</v>
       </c>
       <c r="O853" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="854" spans="1:15" x14ac:dyDescent="0.25">
@@ -51006,7 +51003,7 @@
         <v>2423</v>
       </c>
       <c r="O854" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="855" spans="1:15" x14ac:dyDescent="0.25">
@@ -51053,7 +51050,7 @@
         <v>2423</v>
       </c>
       <c r="O855" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="856" spans="1:15" x14ac:dyDescent="0.25">
@@ -51100,7 +51097,7 @@
         <v>2423</v>
       </c>
       <c r="O856" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="857" spans="1:15" x14ac:dyDescent="0.25">
@@ -51147,7 +51144,7 @@
         <v>2423</v>
       </c>
       <c r="O857" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="858" spans="1:15" x14ac:dyDescent="0.25">
@@ -51194,7 +51191,7 @@
         <v>2423</v>
       </c>
       <c r="O858" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="859" spans="1:15" x14ac:dyDescent="0.25">
@@ -51241,7 +51238,7 @@
         <v>2423</v>
       </c>
       <c r="O859" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="860" spans="1:15" x14ac:dyDescent="0.25">
@@ -51288,7 +51285,7 @@
         <v>2423</v>
       </c>
       <c r="O860" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="861" spans="1:15" x14ac:dyDescent="0.25">
@@ -51335,7 +51332,7 @@
         <v>2423</v>
       </c>
       <c r="O861" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="862" spans="1:15" x14ac:dyDescent="0.25">
@@ -51382,7 +51379,7 @@
         <v>2423</v>
       </c>
       <c r="O862" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="863" spans="1:15" x14ac:dyDescent="0.25">
@@ -51429,7 +51426,7 @@
         <v>2423</v>
       </c>
       <c r="O863" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="864" spans="1:15" x14ac:dyDescent="0.25">
@@ -51476,7 +51473,7 @@
         <v>2423</v>
       </c>
       <c r="O864" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="865" spans="1:15" x14ac:dyDescent="0.25">
@@ -51523,7 +51520,7 @@
         <v>2423</v>
       </c>
       <c r="O865" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="866" spans="1:15" x14ac:dyDescent="0.25">
@@ -51570,7 +51567,7 @@
         <v>2423</v>
       </c>
       <c r="O866" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="867" spans="1:15" x14ac:dyDescent="0.25">
@@ -51617,7 +51614,7 @@
         <v>2423</v>
       </c>
       <c r="O867" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="868" spans="1:15" x14ac:dyDescent="0.25">
@@ -51664,7 +51661,7 @@
         <v>2423</v>
       </c>
       <c r="O868" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="869" spans="1:15" x14ac:dyDescent="0.25">
@@ -51711,7 +51708,7 @@
         <v>2423</v>
       </c>
       <c r="O869" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="870" spans="1:15" x14ac:dyDescent="0.25">
@@ -51758,7 +51755,7 @@
         <v>2423</v>
       </c>
       <c r="O870" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="871" spans="1:15" x14ac:dyDescent="0.25">
@@ -51805,7 +51802,7 @@
         <v>2423</v>
       </c>
       <c r="O871" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="872" spans="1:15" x14ac:dyDescent="0.25">
@@ -51852,7 +51849,7 @@
         <v>2423</v>
       </c>
       <c r="O872" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="873" spans="1:15" x14ac:dyDescent="0.25">
@@ -51899,7 +51896,7 @@
         <v>2423</v>
       </c>
       <c r="O873" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="874" spans="1:15" x14ac:dyDescent="0.25">
@@ -51946,7 +51943,7 @@
         <v>2423</v>
       </c>
       <c r="O874" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="875" spans="1:15" x14ac:dyDescent="0.25">
@@ -51993,7 +51990,7 @@
         <v>2423</v>
       </c>
       <c r="O875" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="876" spans="1:15" x14ac:dyDescent="0.25">
@@ -52040,7 +52037,7 @@
         <v>2423</v>
       </c>
       <c r="O876" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="877" spans="1:15" x14ac:dyDescent="0.25">
@@ -52087,7 +52084,7 @@
         <v>2423</v>
       </c>
       <c r="O877" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="878" spans="1:15" x14ac:dyDescent="0.25">
@@ -52134,7 +52131,7 @@
         <v>2423</v>
       </c>
       <c r="O878" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="879" spans="1:15" x14ac:dyDescent="0.25">
@@ -52181,7 +52178,7 @@
         <v>2423</v>
       </c>
       <c r="O879" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="880" spans="1:15" x14ac:dyDescent="0.25">
@@ -52228,7 +52225,7 @@
         <v>2423</v>
       </c>
       <c r="O880" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="881" spans="1:15" x14ac:dyDescent="0.25">
@@ -52275,7 +52272,7 @@
         <v>2423</v>
       </c>
       <c r="O881" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="882" spans="1:15" x14ac:dyDescent="0.25">
@@ -52322,7 +52319,7 @@
         <v>2423</v>
       </c>
       <c r="O882" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="883" spans="1:15" x14ac:dyDescent="0.25">
@@ -52369,7 +52366,7 @@
         <v>2423</v>
       </c>
       <c r="O883" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="884" spans="1:15" x14ac:dyDescent="0.25">
@@ -52416,7 +52413,7 @@
         <v>2423</v>
       </c>
       <c r="O884" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="885" spans="1:15" x14ac:dyDescent="0.25">
@@ -52463,7 +52460,7 @@
         <v>2423</v>
       </c>
       <c r="O885" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="886" spans="1:15" x14ac:dyDescent="0.25">
@@ -52510,7 +52507,7 @@
         <v>2423</v>
       </c>
       <c r="O886" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="887" spans="1:15" x14ac:dyDescent="0.25">
@@ -52557,7 +52554,7 @@
         <v>2423</v>
       </c>
       <c r="O887" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="888" spans="1:15" x14ac:dyDescent="0.25">
@@ -52604,7 +52601,7 @@
         <v>2423</v>
       </c>
       <c r="O888" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="889" spans="1:15" x14ac:dyDescent="0.25">
@@ -52651,7 +52648,7 @@
         <v>2423</v>
       </c>
       <c r="O889" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="890" spans="1:15" x14ac:dyDescent="0.25">
@@ -52698,7 +52695,7 @@
         <v>2423</v>
       </c>
       <c r="O890" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="891" spans="1:15" x14ac:dyDescent="0.25">
@@ -52745,7 +52742,7 @@
         <v>2423</v>
       </c>
       <c r="O891" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="892" spans="1:15" x14ac:dyDescent="0.25">
@@ -52792,7 +52789,7 @@
         <v>2423</v>
       </c>
       <c r="O892" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="893" spans="1:15" x14ac:dyDescent="0.25">
@@ -52839,7 +52836,7 @@
         <v>2423</v>
       </c>
       <c r="O893" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="894" spans="1:15" x14ac:dyDescent="0.25">
@@ -52886,7 +52883,7 @@
         <v>2423</v>
       </c>
       <c r="O894" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="895" spans="1:15" x14ac:dyDescent="0.25">
@@ -52933,7 +52930,7 @@
         <v>2423</v>
       </c>
       <c r="O895" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="896" spans="1:15" x14ac:dyDescent="0.25">
@@ -52980,7 +52977,7 @@
         <v>2423</v>
       </c>
       <c r="O896" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="897" spans="1:15" x14ac:dyDescent="0.25">
@@ -53027,7 +53024,7 @@
         <v>2423</v>
       </c>
       <c r="O897" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="898" spans="1:15" x14ac:dyDescent="0.25">
@@ -53074,7 +53071,7 @@
         <v>2423</v>
       </c>
       <c r="O898" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="899" spans="1:15" x14ac:dyDescent="0.25">
@@ -53121,7 +53118,7 @@
         <v>2423</v>
       </c>
       <c r="O899" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="900" spans="1:15" x14ac:dyDescent="0.25">
@@ -53168,7 +53165,7 @@
         <v>2423</v>
       </c>
       <c r="O900" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="901" spans="1:15" x14ac:dyDescent="0.25">
@@ -53215,7 +53212,7 @@
         <v>2423</v>
       </c>
       <c r="O901" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="902" spans="1:15" x14ac:dyDescent="0.25">
@@ -53262,7 +53259,7 @@
         <v>2423</v>
       </c>
       <c r="O902" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="903" spans="1:15" x14ac:dyDescent="0.25">
@@ -53309,7 +53306,7 @@
         <v>2423</v>
       </c>
       <c r="O903" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="904" spans="1:15" x14ac:dyDescent="0.25">
@@ -53356,7 +53353,7 @@
         <v>2423</v>
       </c>
       <c r="O904" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="905" spans="1:15" x14ac:dyDescent="0.25">
@@ -53403,7 +53400,7 @@
         <v>2423</v>
       </c>
       <c r="O905" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="906" spans="1:15" x14ac:dyDescent="0.25">
@@ -53450,7 +53447,7 @@
         <v>2423</v>
       </c>
       <c r="O906" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="907" spans="1:15" x14ac:dyDescent="0.25">
@@ -53497,7 +53494,7 @@
         <v>2423</v>
       </c>
       <c r="O907" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="908" spans="1:15" x14ac:dyDescent="0.25">
@@ -53544,7 +53541,7 @@
         <v>2423</v>
       </c>
       <c r="O908" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="909" spans="1:15" x14ac:dyDescent="0.25">
@@ -53591,7 +53588,7 @@
         <v>2423</v>
       </c>
       <c r="O909" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="910" spans="1:15" x14ac:dyDescent="0.25">
@@ -53638,7 +53635,7 @@
         <v>2423</v>
       </c>
       <c r="O910" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="911" spans="1:15" x14ac:dyDescent="0.25">
@@ -53685,7 +53682,7 @@
         <v>2423</v>
       </c>
       <c r="O911" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="912" spans="1:15" x14ac:dyDescent="0.25">
@@ -53732,7 +53729,7 @@
         <v>2423</v>
       </c>
       <c r="O912" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="913" spans="1:15" x14ac:dyDescent="0.25">
@@ -53779,7 +53776,7 @@
         <v>2423</v>
       </c>
       <c r="O913" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="914" spans="1:15" x14ac:dyDescent="0.25">
@@ -53826,7 +53823,7 @@
         <v>2423</v>
       </c>
       <c r="O914" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="915" spans="1:15" x14ac:dyDescent="0.25">
@@ -53873,7 +53870,7 @@
         <v>2423</v>
       </c>
       <c r="O915" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="916" spans="1:15" x14ac:dyDescent="0.25">
@@ -53920,7 +53917,7 @@
         <v>2423</v>
       </c>
       <c r="O916" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="917" spans="1:15" x14ac:dyDescent="0.25">
@@ -53967,7 +53964,7 @@
         <v>2423</v>
       </c>
       <c r="O917" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="918" spans="1:15" x14ac:dyDescent="0.25">
@@ -54014,7 +54011,7 @@
         <v>2423</v>
       </c>
       <c r="O918" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="919" spans="1:15" x14ac:dyDescent="0.25">
@@ -54061,7 +54058,7 @@
         <v>2423</v>
       </c>
       <c r="O919" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="920" spans="1:15" x14ac:dyDescent="0.25">
@@ -54108,7 +54105,7 @@
         <v>2423</v>
       </c>
       <c r="O920" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="921" spans="1:15" x14ac:dyDescent="0.25">
@@ -54155,7 +54152,7 @@
         <v>2423</v>
       </c>
       <c r="O921" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="922" spans="1:15" x14ac:dyDescent="0.25">
@@ -54202,7 +54199,7 @@
         <v>2423</v>
       </c>
       <c r="O922" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="923" spans="1:15" x14ac:dyDescent="0.25">
@@ -54249,7 +54246,7 @@
         <v>2423</v>
       </c>
       <c r="O923" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="924" spans="1:15" x14ac:dyDescent="0.25">
@@ -54296,7 +54293,7 @@
         <v>2423</v>
       </c>
       <c r="O924" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="925" spans="1:15" x14ac:dyDescent="0.25">
@@ -54343,7 +54340,7 @@
         <v>2423</v>
       </c>
       <c r="O925" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="926" spans="1:15" x14ac:dyDescent="0.25">
@@ -54390,7 +54387,7 @@
         <v>2423</v>
       </c>
       <c r="O926" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="927" spans="1:15" x14ac:dyDescent="0.25">
@@ -54437,7 +54434,7 @@
         <v>2423</v>
       </c>
       <c r="O927" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="928" spans="1:15" x14ac:dyDescent="0.25">
@@ -54484,7 +54481,7 @@
         <v>2423</v>
       </c>
       <c r="O928" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="929" spans="1:15" x14ac:dyDescent="0.25">
@@ -54531,7 +54528,7 @@
         <v>2423</v>
       </c>
       <c r="O929" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="930" spans="1:15" x14ac:dyDescent="0.25">
@@ -54578,7 +54575,7 @@
         <v>2423</v>
       </c>
       <c r="O930" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="931" spans="1:15" x14ac:dyDescent="0.25">
@@ -54625,7 +54622,7 @@
         <v>2423</v>
       </c>
       <c r="O931" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="932" spans="1:15" x14ac:dyDescent="0.25">
@@ -54672,7 +54669,7 @@
         <v>2423</v>
       </c>
       <c r="O932" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="933" spans="1:15" x14ac:dyDescent="0.25">
@@ -54719,7 +54716,7 @@
         <v>2423</v>
       </c>
       <c r="O933" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="934" spans="1:15" x14ac:dyDescent="0.25">
@@ -54766,7 +54763,7 @@
         <v>2423</v>
       </c>
       <c r="O934" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="935" spans="1:15" x14ac:dyDescent="0.25">
@@ -54813,7 +54810,7 @@
         <v>2423</v>
       </c>
       <c r="O935" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="936" spans="1:15" x14ac:dyDescent="0.25">
@@ -54860,7 +54857,7 @@
         <v>2423</v>
       </c>
       <c r="O936" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="937" spans="1:15" x14ac:dyDescent="0.25">
@@ -54907,7 +54904,7 @@
         <v>2423</v>
       </c>
       <c r="O937" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="938" spans="1:15" x14ac:dyDescent="0.25">
@@ -54954,7 +54951,7 @@
         <v>2423</v>
       </c>
       <c r="O938" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="939" spans="1:15" x14ac:dyDescent="0.25">
@@ -55001,7 +54998,7 @@
         <v>2423</v>
       </c>
       <c r="O939" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="940" spans="1:15" x14ac:dyDescent="0.25">
@@ -55048,7 +55045,7 @@
         <v>2423</v>
       </c>
       <c r="O940" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="941" spans="1:15" x14ac:dyDescent="0.25">
@@ -55095,7 +55092,7 @@
         <v>2423</v>
       </c>
       <c r="O941" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="942" spans="1:15" x14ac:dyDescent="0.25">
@@ -55142,7 +55139,7 @@
         <v>2423</v>
       </c>
       <c r="O942" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="943" spans="1:15" x14ac:dyDescent="0.25">
@@ -55189,7 +55186,7 @@
         <v>2423</v>
       </c>
       <c r="O943" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="944" spans="1:15" x14ac:dyDescent="0.25">
@@ -55236,7 +55233,7 @@
         <v>2423</v>
       </c>
       <c r="O944" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="945" spans="1:15" x14ac:dyDescent="0.25">
@@ -55283,7 +55280,7 @@
         <v>2423</v>
       </c>
       <c r="O945" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="946" spans="1:15" x14ac:dyDescent="0.25">
@@ -55330,7 +55327,7 @@
         <v>2423</v>
       </c>
       <c r="O946" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="947" spans="1:15" x14ac:dyDescent="0.25">
@@ -55377,7 +55374,7 @@
         <v>2423</v>
       </c>
       <c r="O947" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="948" spans="1:15" x14ac:dyDescent="0.25">
@@ -55424,7 +55421,7 @@
         <v>2423</v>
       </c>
       <c r="O948" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="949" spans="1:15" x14ac:dyDescent="0.25">
@@ -55471,7 +55468,7 @@
         <v>2423</v>
       </c>
       <c r="O949" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="950" spans="1:15" x14ac:dyDescent="0.25">
@@ -55518,7 +55515,7 @@
         <v>2423</v>
       </c>
       <c r="O950" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="951" spans="1:15" x14ac:dyDescent="0.25">
@@ -55565,7 +55562,7 @@
         <v>2423</v>
       </c>
       <c r="O951" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="952" spans="1:15" x14ac:dyDescent="0.25">
@@ -55612,7 +55609,7 @@
         <v>2423</v>
       </c>
       <c r="O952" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="953" spans="1:15" x14ac:dyDescent="0.25">
@@ -55659,7 +55656,7 @@
         <v>2423</v>
       </c>
       <c r="O953" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="954" spans="1:15" x14ac:dyDescent="0.25">
@@ -55706,7 +55703,7 @@
         <v>2423</v>
       </c>
       <c r="O954" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="955" spans="1:15" x14ac:dyDescent="0.25">
@@ -55753,7 +55750,7 @@
         <v>2423</v>
       </c>
       <c r="O955" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="956" spans="1:15" x14ac:dyDescent="0.25">
@@ -55800,7 +55797,7 @@
         <v>2423</v>
       </c>
       <c r="O956" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="957" spans="1:15" x14ac:dyDescent="0.25">
@@ -55847,7 +55844,7 @@
         <v>2423</v>
       </c>
       <c r="O957" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="958" spans="1:15" x14ac:dyDescent="0.25">
@@ -55894,7 +55891,7 @@
         <v>2423</v>
       </c>
       <c r="O958" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="959" spans="1:15" x14ac:dyDescent="0.25">
@@ -55941,7 +55938,7 @@
         <v>2423</v>
       </c>
       <c r="O959" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="960" spans="1:15" x14ac:dyDescent="0.25">
@@ -55988,7 +55985,7 @@
         <v>2423</v>
       </c>
       <c r="O960" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="961" spans="1:15" x14ac:dyDescent="0.25">
@@ -56035,7 +56032,7 @@
         <v>2423</v>
       </c>
       <c r="O961" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="962" spans="1:15" x14ac:dyDescent="0.25">
@@ -56082,7 +56079,7 @@
         <v>2423</v>
       </c>
       <c r="O962" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="963" spans="1:15" x14ac:dyDescent="0.25">
@@ -56129,7 +56126,7 @@
         <v>2423</v>
       </c>
       <c r="O963" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="964" spans="1:15" x14ac:dyDescent="0.25">
@@ -56176,7 +56173,7 @@
         <v>2423</v>
       </c>
       <c r="O964" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="965" spans="1:15" x14ac:dyDescent="0.25">
@@ -56223,7 +56220,7 @@
         <v>2423</v>
       </c>
       <c r="O965" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="966" spans="1:15" x14ac:dyDescent="0.25">
@@ -56270,7 +56267,7 @@
         <v>2423</v>
       </c>
       <c r="O966" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="967" spans="1:15" x14ac:dyDescent="0.25">
@@ -56317,7 +56314,7 @@
         <v>2423</v>
       </c>
       <c r="O967" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="968" spans="1:15" x14ac:dyDescent="0.25">
@@ -56364,7 +56361,7 @@
         <v>2423</v>
       </c>
       <c r="O968" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="969" spans="1:15" x14ac:dyDescent="0.25">
@@ -56411,7 +56408,7 @@
         <v>2423</v>
       </c>
       <c r="O969" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="970" spans="1:15" x14ac:dyDescent="0.25">
@@ -56458,7 +56455,7 @@
         <v>2423</v>
       </c>
       <c r="O970" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="971" spans="1:15" x14ac:dyDescent="0.25">
@@ -56505,7 +56502,7 @@
         <v>2423</v>
       </c>
       <c r="O971" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="972" spans="1:15" x14ac:dyDescent="0.25">
@@ -56552,7 +56549,7 @@
         <v>2423</v>
       </c>
       <c r="O972" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="973" spans="1:15" x14ac:dyDescent="0.25">
@@ -56599,7 +56596,7 @@
         <v>2423</v>
       </c>
       <c r="O973" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="974" spans="1:15" x14ac:dyDescent="0.25">
@@ -56646,7 +56643,7 @@
         <v>2423</v>
       </c>
       <c r="O974" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="975" spans="1:15" x14ac:dyDescent="0.25">
@@ -56693,7 +56690,7 @@
         <v>2423</v>
       </c>
       <c r="O975" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="976" spans="1:15" x14ac:dyDescent="0.25">
@@ -56740,7 +56737,7 @@
         <v>2423</v>
       </c>
       <c r="O976" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="977" spans="1:15" x14ac:dyDescent="0.25">
@@ -56787,7 +56784,7 @@
         <v>2423</v>
       </c>
       <c r="O977" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="978" spans="1:15" x14ac:dyDescent="0.25">
@@ -56834,7 +56831,7 @@
         <v>2423</v>
       </c>
       <c r="O978" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="979" spans="1:15" x14ac:dyDescent="0.25">
@@ -56881,7 +56878,7 @@
         <v>2423</v>
       </c>
       <c r="O979" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="980" spans="1:15" x14ac:dyDescent="0.25">
@@ -56928,7 +56925,7 @@
         <v>2423</v>
       </c>
       <c r="O980" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="981" spans="1:15" x14ac:dyDescent="0.25">
@@ -56975,7 +56972,7 @@
         <v>2423</v>
       </c>
       <c r="O981" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="982" spans="1:15" x14ac:dyDescent="0.25">
@@ -57022,7 +57019,7 @@
         <v>2423</v>
       </c>
       <c r="O982" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="983" spans="1:15" x14ac:dyDescent="0.25">
@@ -57069,7 +57066,7 @@
         <v>2423</v>
       </c>
       <c r="O983" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="984" spans="1:15" x14ac:dyDescent="0.25">
@@ -57116,7 +57113,7 @@
         <v>2423</v>
       </c>
       <c r="O984" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="985" spans="1:15" x14ac:dyDescent="0.25">
@@ -57163,7 +57160,7 @@
         <v>2423</v>
       </c>
       <c r="O985" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="986" spans="1:15" x14ac:dyDescent="0.25">
@@ -57210,7 +57207,7 @@
         <v>2423</v>
       </c>
       <c r="O986" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="987" spans="1:15" x14ac:dyDescent="0.25">
@@ -57257,7 +57254,7 @@
         <v>2423</v>
       </c>
       <c r="O987" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="988" spans="1:15" x14ac:dyDescent="0.25">
@@ -57304,7 +57301,7 @@
         <v>2423</v>
       </c>
       <c r="O988" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="989" spans="1:15" x14ac:dyDescent="0.25">
@@ -57351,7 +57348,7 @@
         <v>2423</v>
       </c>
       <c r="O989" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="990" spans="1:15" x14ac:dyDescent="0.25">
@@ -57398,7 +57395,7 @@
         <v>2423</v>
       </c>
       <c r="O990" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="991" spans="1:15" x14ac:dyDescent="0.25">
@@ -57445,7 +57442,7 @@
         <v>2423</v>
       </c>
       <c r="O991" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="992" spans="1:15" x14ac:dyDescent="0.25">
@@ -57492,7 +57489,7 @@
         <v>2423</v>
       </c>
       <c r="O992" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="993" spans="1:15" x14ac:dyDescent="0.25">
@@ -57539,7 +57536,7 @@
         <v>2423</v>
       </c>
       <c r="O993" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="994" spans="1:15" x14ac:dyDescent="0.25">
@@ -57586,7 +57583,7 @@
         <v>2423</v>
       </c>
       <c r="O994" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="995" spans="1:15" x14ac:dyDescent="0.25">
@@ -57633,7 +57630,7 @@
         <v>2423</v>
       </c>
       <c r="O995" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="996" spans="1:15" x14ac:dyDescent="0.25">
@@ -57680,7 +57677,7 @@
         <v>2423</v>
       </c>
       <c r="O996" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="997" spans="1:15" x14ac:dyDescent="0.25">
@@ -57727,7 +57724,7 @@
         <v>2423</v>
       </c>
       <c r="O997" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="998" spans="1:15" x14ac:dyDescent="0.25">
@@ -57774,7 +57771,7 @@
         <v>2423</v>
       </c>
       <c r="O998" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="999" spans="1:15" x14ac:dyDescent="0.25">
@@ -57821,7 +57818,7 @@
         <v>2423</v>
       </c>
       <c r="O999" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1000" spans="1:15" x14ac:dyDescent="0.25">
@@ -57868,7 +57865,7 @@
         <v>2423</v>
       </c>
       <c r="O1000" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1001" spans="1:15" x14ac:dyDescent="0.25">
@@ -57915,7 +57912,7 @@
         <v>2423</v>
       </c>
       <c r="O1001" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1002" spans="1:15" x14ac:dyDescent="0.25">
@@ -57962,7 +57959,7 @@
         <v>2423</v>
       </c>
       <c r="O1002" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1003" spans="1:15" x14ac:dyDescent="0.25">
@@ -58009,7 +58006,7 @@
         <v>2423</v>
       </c>
       <c r="O1003" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1004" spans="1:15" x14ac:dyDescent="0.25">
@@ -58056,7 +58053,7 @@
         <v>2423</v>
       </c>
       <c r="O1004" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1005" spans="1:15" x14ac:dyDescent="0.25">
@@ -58103,7 +58100,7 @@
         <v>2423</v>
       </c>
       <c r="O1005" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1006" spans="1:15" x14ac:dyDescent="0.25">
@@ -58150,7 +58147,7 @@
         <v>2423</v>
       </c>
       <c r="O1006" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1007" spans="1:15" x14ac:dyDescent="0.25">
@@ -58197,7 +58194,7 @@
         <v>2423</v>
       </c>
       <c r="O1007" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1008" spans="1:15" x14ac:dyDescent="0.25">
@@ -58244,7 +58241,7 @@
         <v>2423</v>
       </c>
       <c r="O1008" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1009" spans="1:15" x14ac:dyDescent="0.25">
@@ -58291,7 +58288,7 @@
         <v>2423</v>
       </c>
       <c r="O1009" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1010" spans="1:15" x14ac:dyDescent="0.25">
@@ -58338,7 +58335,7 @@
         <v>2423</v>
       </c>
       <c r="O1010" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1011" spans="1:15" x14ac:dyDescent="0.25">
@@ -58385,7 +58382,7 @@
         <v>2423</v>
       </c>
       <c r="O1011" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1012" spans="1:15" x14ac:dyDescent="0.25">
@@ -58432,7 +58429,7 @@
         <v>2423</v>
       </c>
       <c r="O1012" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1013" spans="1:15" x14ac:dyDescent="0.25">
@@ -58479,7 +58476,7 @@
         <v>2423</v>
       </c>
       <c r="O1013" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1014" spans="1:15" x14ac:dyDescent="0.25">
@@ -58526,7 +58523,7 @@
         <v>2423</v>
       </c>
       <c r="O1014" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1015" spans="1:15" x14ac:dyDescent="0.25">
@@ -58573,7 +58570,7 @@
         <v>2423</v>
       </c>
       <c r="O1015" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1016" spans="1:15" x14ac:dyDescent="0.25">
@@ -58620,7 +58617,7 @@
         <v>2423</v>
       </c>
       <c r="O1016" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1017" spans="1:15" x14ac:dyDescent="0.25">
@@ -58667,7 +58664,7 @@
         <v>2423</v>
       </c>
       <c r="O1017" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1018" spans="1:15" x14ac:dyDescent="0.25">
@@ -58714,7 +58711,7 @@
         <v>2423</v>
       </c>
       <c r="O1018" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1019" spans="1:15" x14ac:dyDescent="0.25">
@@ -58761,7 +58758,7 @@
         <v>2423</v>
       </c>
       <c r="O1019" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1020" spans="1:15" x14ac:dyDescent="0.25">
@@ -58808,7 +58805,7 @@
         <v>2423</v>
       </c>
       <c r="O1020" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1021" spans="1:15" x14ac:dyDescent="0.25">
@@ -58855,7 +58852,7 @@
         <v>2423</v>
       </c>
       <c r="O1021" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1022" spans="1:15" x14ac:dyDescent="0.25">
@@ -58902,7 +58899,7 @@
         <v>2423</v>
       </c>
       <c r="O1022" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1023" spans="1:15" x14ac:dyDescent="0.25">
@@ -58949,7 +58946,7 @@
         <v>2423</v>
       </c>
       <c r="O1023" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1024" spans="1:15" x14ac:dyDescent="0.25">
@@ -58996,7 +58993,7 @@
         <v>2423</v>
       </c>
       <c r="O1024" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1025" spans="1:15" x14ac:dyDescent="0.25">
@@ -59043,7 +59040,7 @@
         <v>2423</v>
       </c>
       <c r="O1025" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1026" spans="1:15" x14ac:dyDescent="0.25">
@@ -59090,7 +59087,7 @@
         <v>2423</v>
       </c>
       <c r="O1026" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1027" spans="1:15" x14ac:dyDescent="0.25">
@@ -59137,7 +59134,7 @@
         <v>2423</v>
       </c>
       <c r="O1027" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1028" spans="1:15" x14ac:dyDescent="0.25">
@@ -59184,7 +59181,7 @@
         <v>2423</v>
       </c>
       <c r="O1028" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1029" spans="1:15" x14ac:dyDescent="0.25">
@@ -59231,7 +59228,7 @@
         <v>2423</v>
       </c>
       <c r="O1029" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1030" spans="1:15" x14ac:dyDescent="0.25">
@@ -59278,7 +59275,7 @@
         <v>2423</v>
       </c>
       <c r="O1030" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1031" spans="1:15" x14ac:dyDescent="0.25">
@@ -59325,7 +59322,7 @@
         <v>2423</v>
       </c>
       <c r="O1031" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1032" spans="1:15" x14ac:dyDescent="0.25">
@@ -59372,7 +59369,7 @@
         <v>2423</v>
       </c>
       <c r="O1032" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1033" spans="1:15" x14ac:dyDescent="0.25">
@@ -59419,7 +59416,7 @@
         <v>2423</v>
       </c>
       <c r="O1033" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1034" spans="1:15" x14ac:dyDescent="0.25">
@@ -59466,7 +59463,7 @@
         <v>2423</v>
       </c>
       <c r="O1034" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1035" spans="1:15" x14ac:dyDescent="0.25">
@@ -59513,7 +59510,7 @@
         <v>2423</v>
       </c>
       <c r="O1035" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1036" spans="1:15" x14ac:dyDescent="0.25">
@@ -59560,7 +59557,7 @@
         <v>2423</v>
       </c>
       <c r="O1036" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1037" spans="1:15" x14ac:dyDescent="0.25">
@@ -59607,7 +59604,7 @@
         <v>2423</v>
       </c>
       <c r="O1037" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1038" spans="1:15" x14ac:dyDescent="0.25">
@@ -59654,7 +59651,7 @@
         <v>2423</v>
       </c>
       <c r="O1038" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1039" spans="1:15" x14ac:dyDescent="0.25">
@@ -59701,7 +59698,7 @@
         <v>2423</v>
       </c>
       <c r="O1039" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1040" spans="1:15" x14ac:dyDescent="0.25">
@@ -59748,7 +59745,7 @@
         <v>2423</v>
       </c>
       <c r="O1040" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1041" spans="1:15" x14ac:dyDescent="0.25">
@@ -59795,7 +59792,7 @@
         <v>2423</v>
       </c>
       <c r="O1041" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1042" spans="1:15" x14ac:dyDescent="0.25">
@@ -59842,7 +59839,7 @@
         <v>2423</v>
       </c>
       <c r="O1042" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1043" spans="1:15" x14ac:dyDescent="0.25">
@@ -59889,7 +59886,7 @@
         <v>2423</v>
       </c>
       <c r="O1043" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1044" spans="1:15" x14ac:dyDescent="0.25">
@@ -59936,7 +59933,7 @@
         <v>2423</v>
       </c>
       <c r="O1044" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1045" spans="1:15" x14ac:dyDescent="0.25">
@@ -59983,7 +59980,7 @@
         <v>2423</v>
       </c>
       <c r="O1045" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1046" spans="1:15" x14ac:dyDescent="0.25">
@@ -60030,7 +60027,7 @@
         <v>2423</v>
       </c>
       <c r="O1046" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1047" spans="1:15" x14ac:dyDescent="0.25">
@@ -60077,7 +60074,7 @@
         <v>2423</v>
       </c>
       <c r="O1047" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1048" spans="1:15" x14ac:dyDescent="0.25">
@@ -60124,7 +60121,7 @@
         <v>2423</v>
       </c>
       <c r="O1048" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1049" spans="1:15" x14ac:dyDescent="0.25">
@@ -60171,7 +60168,7 @@
         <v>2423</v>
       </c>
       <c r="O1049" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1050" spans="1:15" x14ac:dyDescent="0.25">
@@ -60218,7 +60215,7 @@
         <v>2423</v>
       </c>
       <c r="O1050" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1051" spans="1:15" x14ac:dyDescent="0.25">
@@ -60265,7 +60262,7 @@
         <v>2423</v>
       </c>
       <c r="O1051" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1052" spans="1:15" x14ac:dyDescent="0.25">
@@ -60312,7 +60309,7 @@
         <v>2423</v>
       </c>
       <c r="O1052" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1053" spans="1:15" x14ac:dyDescent="0.25">
@@ -60359,7 +60356,7 @@
         <v>2423</v>
       </c>
       <c r="O1053" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1054" spans="1:15" x14ac:dyDescent="0.25">
@@ -60406,7 +60403,7 @@
         <v>2423</v>
       </c>
       <c r="O1054" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1055" spans="1:15" x14ac:dyDescent="0.25">
@@ -60453,7 +60450,7 @@
         <v>2423</v>
       </c>
       <c r="O1055" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1056" spans="1:15" x14ac:dyDescent="0.25">
@@ -60500,7 +60497,7 @@
         <v>2423</v>
       </c>
       <c r="O1056" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1057" spans="1:15" x14ac:dyDescent="0.25">
@@ -60547,7 +60544,7 @@
         <v>2423</v>
       </c>
       <c r="O1057" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1058" spans="1:15" x14ac:dyDescent="0.25">
@@ -60594,7 +60591,7 @@
         <v>2423</v>
       </c>
       <c r="O1058" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1059" spans="1:15" x14ac:dyDescent="0.25">
@@ -60641,7 +60638,7 @@
         <v>2423</v>
       </c>
       <c r="O1059" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1060" spans="1:15" x14ac:dyDescent="0.25">
@@ -60688,7 +60685,7 @@
         <v>2423</v>
       </c>
       <c r="O1060" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1061" spans="1:15" x14ac:dyDescent="0.25">
@@ -60735,7 +60732,7 @@
         <v>2423</v>
       </c>
       <c r="O1061" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1062" spans="1:15" x14ac:dyDescent="0.25">
@@ -60782,7 +60779,7 @@
         <v>2423</v>
       </c>
       <c r="O1062" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1063" spans="1:15" x14ac:dyDescent="0.25">
@@ -60829,7 +60826,7 @@
         <v>2423</v>
       </c>
       <c r="O1063" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1064" spans="1:15" x14ac:dyDescent="0.25">
@@ -60876,7 +60873,7 @@
         <v>2423</v>
       </c>
       <c r="O1064" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1065" spans="1:15" x14ac:dyDescent="0.25">
@@ -60923,7 +60920,7 @@
         <v>2423</v>
       </c>
       <c r="O1065" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1066" spans="1:15" x14ac:dyDescent="0.25">
@@ -60970,7 +60967,7 @@
         <v>2423</v>
       </c>
       <c r="O1066" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1067" spans="1:15" x14ac:dyDescent="0.25">
@@ -61017,7 +61014,7 @@
         <v>2423</v>
       </c>
       <c r="O1067" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1068" spans="1:15" x14ac:dyDescent="0.25">
@@ -61064,7 +61061,7 @@
         <v>2423</v>
       </c>
       <c r="O1068" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1069" spans="1:15" x14ac:dyDescent="0.25">
@@ -61111,7 +61108,7 @@
         <v>2423</v>
       </c>
       <c r="O1069" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1070" spans="1:15" x14ac:dyDescent="0.25">
@@ -61158,7 +61155,7 @@
         <v>2423</v>
       </c>
       <c r="O1070" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1071" spans="1:15" x14ac:dyDescent="0.25">
@@ -61205,7 +61202,7 @@
         <v>2423</v>
       </c>
       <c r="O1071" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1072" spans="1:15" x14ac:dyDescent="0.25">
@@ -61252,7 +61249,7 @@
         <v>2423</v>
       </c>
       <c r="O1072" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1073" spans="1:15" x14ac:dyDescent="0.25">
@@ -61299,7 +61296,7 @@
         <v>2423</v>
       </c>
       <c r="O1073" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1074" spans="1:15" x14ac:dyDescent="0.25">
@@ -61346,7 +61343,7 @@
         <v>2423</v>
       </c>
       <c r="O1074" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1075" spans="1:15" x14ac:dyDescent="0.25">
@@ -61393,7 +61390,7 @@
         <v>2423</v>
       </c>
       <c r="O1075" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1076" spans="1:15" x14ac:dyDescent="0.25">
@@ -61440,7 +61437,7 @@
         <v>2423</v>
       </c>
       <c r="O1076" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1077" spans="1:15" x14ac:dyDescent="0.25">
@@ -61487,7 +61484,7 @@
         <v>2423</v>
       </c>
       <c r="O1077" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1078" spans="1:15" x14ac:dyDescent="0.25">
@@ -61534,7 +61531,7 @@
         <v>2423</v>
       </c>
       <c r="O1078" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1079" spans="1:15" x14ac:dyDescent="0.25">
@@ -61581,7 +61578,7 @@
         <v>2423</v>
       </c>
       <c r="O1079" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1080" spans="1:15" x14ac:dyDescent="0.25">
@@ -61628,7 +61625,7 @@
         <v>2423</v>
       </c>
       <c r="O1080" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1081" spans="1:15" x14ac:dyDescent="0.25">
@@ -61675,7 +61672,7 @@
         <v>2423</v>
       </c>
       <c r="O1081" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1082" spans="1:15" x14ac:dyDescent="0.25">
@@ -61722,7 +61719,7 @@
         <v>2423</v>
       </c>
       <c r="O1082" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1083" spans="1:15" x14ac:dyDescent="0.25">
@@ -61769,7 +61766,7 @@
         <v>2423</v>
       </c>
       <c r="O1083" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1084" spans="1:15" x14ac:dyDescent="0.25">
@@ -61816,7 +61813,7 @@
         <v>2423</v>
       </c>
       <c r="O1084" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1085" spans="1:15" x14ac:dyDescent="0.25">
@@ -61863,7 +61860,7 @@
         <v>2423</v>
       </c>
       <c r="O1085" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1086" spans="1:15" x14ac:dyDescent="0.25">
@@ -61910,7 +61907,7 @@
         <v>2423</v>
       </c>
       <c r="O1086" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1087" spans="1:15" x14ac:dyDescent="0.25">
@@ -61957,7 +61954,7 @@
         <v>2423</v>
       </c>
       <c r="O1087" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1088" spans="1:15" x14ac:dyDescent="0.25">
@@ -62004,7 +62001,7 @@
         <v>2423</v>
       </c>
       <c r="O1088" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1089" spans="1:15" x14ac:dyDescent="0.25">
@@ -62051,7 +62048,7 @@
         <v>2423</v>
       </c>
       <c r="O1089" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1090" spans="1:15" x14ac:dyDescent="0.25">
@@ -62098,7 +62095,7 @@
         <v>2423</v>
       </c>
       <c r="O1090" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1091" spans="1:15" x14ac:dyDescent="0.25">
@@ -62145,7 +62142,7 @@
         <v>2423</v>
       </c>
       <c r="O1091" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1092" spans="1:15" x14ac:dyDescent="0.25">
@@ -62192,7 +62189,7 @@
         <v>2423</v>
       </c>
       <c r="O1092" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1093" spans="1:15" x14ac:dyDescent="0.25">
@@ -62239,7 +62236,7 @@
         <v>2423</v>
       </c>
       <c r="O1093" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1094" spans="1:15" x14ac:dyDescent="0.25">
@@ -62286,7 +62283,7 @@
         <v>2423</v>
       </c>
       <c r="O1094" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1095" spans="1:15" x14ac:dyDescent="0.25">
@@ -62333,7 +62330,7 @@
         <v>2423</v>
       </c>
       <c r="O1095" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1096" spans="1:15" x14ac:dyDescent="0.25">
@@ -62380,7 +62377,7 @@
         <v>2423</v>
       </c>
       <c r="O1096" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1097" spans="1:15" x14ac:dyDescent="0.25">
@@ -62427,7 +62424,7 @@
         <v>2423</v>
       </c>
       <c r="O1097" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1098" spans="1:15" x14ac:dyDescent="0.25">
@@ -62474,7 +62471,7 @@
         <v>2423</v>
       </c>
       <c r="O1098" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1099" spans="1:15" x14ac:dyDescent="0.25">
@@ -62521,7 +62518,7 @@
         <v>2423</v>
       </c>
       <c r="O1099" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1100" spans="1:15" x14ac:dyDescent="0.25">
@@ -62568,7 +62565,7 @@
         <v>2423</v>
       </c>
       <c r="O1100" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1101" spans="1:15" x14ac:dyDescent="0.25">
@@ -62615,7 +62612,7 @@
         <v>2423</v>
       </c>
       <c r="O1101" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1102" spans="1:15" x14ac:dyDescent="0.25">
@@ -62662,7 +62659,7 @@
         <v>2423</v>
       </c>
       <c r="O1102" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1103" spans="1:15" x14ac:dyDescent="0.25">
@@ -62709,7 +62706,7 @@
         <v>2423</v>
       </c>
       <c r="O1103" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1104" spans="1:15" x14ac:dyDescent="0.25">
@@ -62756,7 +62753,7 @@
         <v>2423</v>
       </c>
       <c r="O1104" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1105" spans="1:15" x14ac:dyDescent="0.25">
@@ -62803,7 +62800,7 @@
         <v>2423</v>
       </c>
       <c r="O1105" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1106" spans="1:15" x14ac:dyDescent="0.25">
@@ -62850,7 +62847,7 @@
         <v>2423</v>
       </c>
       <c r="O1106" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1107" spans="1:15" x14ac:dyDescent="0.25">
@@ -62897,7 +62894,7 @@
         <v>2423</v>
       </c>
       <c r="O1107" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1108" spans="1:15" x14ac:dyDescent="0.25">
@@ -62944,7 +62941,7 @@
         <v>2423</v>
       </c>
       <c r="O1108" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1109" spans="1:15" x14ac:dyDescent="0.25">
@@ -62991,7 +62988,7 @@
         <v>2423</v>
       </c>
       <c r="O1109" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1110" spans="1:15" x14ac:dyDescent="0.25">
@@ -63038,7 +63035,7 @@
         <v>2423</v>
       </c>
       <c r="O1110" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1111" spans="1:15" x14ac:dyDescent="0.25">
@@ -63085,7 +63082,7 @@
         <v>2423</v>
       </c>
       <c r="O1111" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1112" spans="1:15" x14ac:dyDescent="0.25">
@@ -63132,7 +63129,7 @@
         <v>2423</v>
       </c>
       <c r="O1112" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1113" spans="1:15" x14ac:dyDescent="0.25">
@@ -63179,7 +63176,7 @@
         <v>2423</v>
       </c>
       <c r="O1113" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1114" spans="1:15" x14ac:dyDescent="0.25">
@@ -63226,7 +63223,7 @@
         <v>2423</v>
       </c>
       <c r="O1114" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1115" spans="1:15" x14ac:dyDescent="0.25">
@@ -63273,7 +63270,7 @@
         <v>2423</v>
       </c>
       <c r="O1115" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1116" spans="1:15" x14ac:dyDescent="0.25">
@@ -63320,7 +63317,7 @@
         <v>2423</v>
       </c>
       <c r="O1116" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1117" spans="1:15" x14ac:dyDescent="0.25">
@@ -63367,7 +63364,7 @@
         <v>2423</v>
       </c>
       <c r="O1117" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1118" spans="1:15" x14ac:dyDescent="0.25">
@@ -63414,7 +63411,7 @@
         <v>2423</v>
       </c>
       <c r="O1118" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1119" spans="1:15" x14ac:dyDescent="0.25">
@@ -63461,7 +63458,7 @@
         <v>2423</v>
       </c>
       <c r="O1119" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1120" spans="1:15" x14ac:dyDescent="0.25">
@@ -63508,7 +63505,7 @@
         <v>2423</v>
       </c>
       <c r="O1120" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1121" spans="1:15" x14ac:dyDescent="0.25">
@@ -63555,7 +63552,7 @@
         <v>2423</v>
       </c>
       <c r="O1121" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1122" spans="1:15" x14ac:dyDescent="0.25">
@@ -63602,7 +63599,7 @@
         <v>2423</v>
       </c>
       <c r="O1122" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1123" spans="1:15" x14ac:dyDescent="0.25">
@@ -63649,7 +63646,7 @@
         <v>2423</v>
       </c>
       <c r="O1123" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1124" spans="1:15" x14ac:dyDescent="0.25">
@@ -63696,7 +63693,7 @@
         <v>2423</v>
       </c>
       <c r="O1124" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1125" spans="1:15" x14ac:dyDescent="0.25">
@@ -63743,7 +63740,7 @@
         <v>2423</v>
       </c>
       <c r="O1125" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1126" spans="1:15" x14ac:dyDescent="0.25">
@@ -63790,7 +63787,7 @@
         <v>2423</v>
       </c>
       <c r="O1126" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1127" spans="1:15" x14ac:dyDescent="0.25">
@@ -63837,7 +63834,7 @@
         <v>2423</v>
       </c>
       <c r="O1127" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1128" spans="1:15" x14ac:dyDescent="0.25">
@@ -63884,7 +63881,7 @@
         <v>2423</v>
       </c>
       <c r="O1128" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1129" spans="1:15" x14ac:dyDescent="0.25">
@@ -63931,7 +63928,7 @@
         <v>2423</v>
       </c>
       <c r="O1129" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1130" spans="1:15" x14ac:dyDescent="0.25">
@@ -63978,7 +63975,7 @@
         <v>2423</v>
       </c>
       <c r="O1130" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1131" spans="1:15" x14ac:dyDescent="0.25">
@@ -64025,7 +64022,7 @@
         <v>2423</v>
       </c>
       <c r="O1131" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1132" spans="1:15" x14ac:dyDescent="0.25">
@@ -64072,7 +64069,7 @@
         <v>2423</v>
       </c>
       <c r="O1132" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1133" spans="1:15" x14ac:dyDescent="0.25">
@@ -64119,7 +64116,7 @@
         <v>2423</v>
       </c>
       <c r="O1133" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1134" spans="1:15" x14ac:dyDescent="0.25">
@@ -64166,7 +64163,7 @@
         <v>2423</v>
       </c>
       <c r="O1134" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1135" spans="1:15" x14ac:dyDescent="0.25">
@@ -64213,7 +64210,7 @@
         <v>2423</v>
       </c>
       <c r="O1135" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1136" spans="1:15" x14ac:dyDescent="0.25">
@@ -64260,7 +64257,7 @@
         <v>2423</v>
       </c>
       <c r="O1136" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1137" spans="1:15" x14ac:dyDescent="0.25">
@@ -64307,7 +64304,7 @@
         <v>2423</v>
       </c>
       <c r="O1137" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1138" spans="1:15" x14ac:dyDescent="0.25">
@@ -64354,7 +64351,7 @@
         <v>2423</v>
       </c>
       <c r="O1138" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1139" spans="1:15" x14ac:dyDescent="0.25">
@@ -64401,7 +64398,7 @@
         <v>2423</v>
       </c>
       <c r="O1139" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1140" spans="1:15" x14ac:dyDescent="0.25">
@@ -64448,7 +64445,7 @@
         <v>2423</v>
       </c>
       <c r="O1140" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1141" spans="1:15" x14ac:dyDescent="0.25">
@@ -64495,7 +64492,7 @@
         <v>2423</v>
       </c>
       <c r="O1141" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1142" spans="1:15" x14ac:dyDescent="0.25">
@@ -64542,7 +64539,7 @@
         <v>2423</v>
       </c>
       <c r="O1142" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1143" spans="1:15" x14ac:dyDescent="0.25">
@@ -64589,7 +64586,7 @@
         <v>2423</v>
       </c>
       <c r="O1143" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1144" spans="1:15" x14ac:dyDescent="0.25">
@@ -64636,7 +64633,7 @@
         <v>2423</v>
       </c>
       <c r="O1144" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1145" spans="1:15" x14ac:dyDescent="0.25">
@@ -64683,7 +64680,7 @@
         <v>2423</v>
       </c>
       <c r="O1145" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1146" spans="1:15" x14ac:dyDescent="0.25">
@@ -64730,7 +64727,7 @@
         <v>2423</v>
       </c>
       <c r="O1146" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1147" spans="1:15" x14ac:dyDescent="0.25">
@@ -64777,7 +64774,7 @@
         <v>2423</v>
       </c>
       <c r="O1147" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1148" spans="1:15" x14ac:dyDescent="0.25">
@@ -64824,7 +64821,7 @@
         <v>2423</v>
       </c>
       <c r="O1148" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1149" spans="1:15" x14ac:dyDescent="0.25">
@@ -64871,7 +64868,7 @@
         <v>2423</v>
       </c>
       <c r="O1149" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1150" spans="1:15" x14ac:dyDescent="0.25">
@@ -64918,7 +64915,7 @@
         <v>2423</v>
       </c>
       <c r="O1150" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1151" spans="1:15" x14ac:dyDescent="0.25">
@@ -64965,7 +64962,7 @@
         <v>2423</v>
       </c>
       <c r="O1151" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1152" spans="1:15" x14ac:dyDescent="0.25">
@@ -65012,7 +65009,7 @@
         <v>2423</v>
       </c>
       <c r="O1152" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1153" spans="1:15" x14ac:dyDescent="0.25">
@@ -65059,7 +65056,7 @@
         <v>2423</v>
       </c>
       <c r="O1153" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1154" spans="1:15" x14ac:dyDescent="0.25">
@@ -65106,7 +65103,7 @@
         <v>2423</v>
       </c>
       <c r="O1154" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1155" spans="1:15" x14ac:dyDescent="0.25">
@@ -65153,7 +65150,7 @@
         <v>2423</v>
       </c>
       <c r="O1155" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1156" spans="1:15" x14ac:dyDescent="0.25">
@@ -65200,7 +65197,7 @@
         <v>2423</v>
       </c>
       <c r="O1156" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1157" spans="1:15" x14ac:dyDescent="0.25">
@@ -65247,7 +65244,7 @@
         <v>2423</v>
       </c>
       <c r="O1157" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1158" spans="1:15" x14ac:dyDescent="0.25">
@@ -65294,7 +65291,7 @@
         <v>2423</v>
       </c>
       <c r="O1158" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1159" spans="1:15" x14ac:dyDescent="0.25">
@@ -65341,7 +65338,7 @@
         <v>2423</v>
       </c>
       <c r="O1159" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1160" spans="1:15" x14ac:dyDescent="0.25">
@@ -65388,7 +65385,7 @@
         <v>2423</v>
       </c>
       <c r="O1160" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1161" spans="1:15" x14ac:dyDescent="0.25">
@@ -65435,7 +65432,7 @@
         <v>2423</v>
       </c>
       <c r="O1161" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1162" spans="1:15" x14ac:dyDescent="0.25">
@@ -65482,7 +65479,7 @@
         <v>2423</v>
       </c>
       <c r="O1162" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1163" spans="1:15" x14ac:dyDescent="0.25">
@@ -65529,7 +65526,7 @@
         <v>2423</v>
       </c>
       <c r="O1163" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1164" spans="1:15" x14ac:dyDescent="0.25">
@@ -65576,7 +65573,7 @@
         <v>2423</v>
       </c>
       <c r="O1164" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1165" spans="1:15" x14ac:dyDescent="0.25">
@@ -65623,7 +65620,7 @@
         <v>2423</v>
       </c>
       <c r="O1165" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1166" spans="1:15" x14ac:dyDescent="0.25">
@@ -65670,7 +65667,7 @@
         <v>2423</v>
       </c>
       <c r="O1166" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1167" spans="1:15" x14ac:dyDescent="0.25">
@@ -65717,7 +65714,7 @@
         <v>2423</v>
       </c>
       <c r="O1167" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1168" spans="1:15" x14ac:dyDescent="0.25">
@@ -65764,7 +65761,7 @@
         <v>2423</v>
       </c>
       <c r="O1168" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1169" spans="1:15" x14ac:dyDescent="0.25">
@@ -65811,7 +65808,7 @@
         <v>2423</v>
       </c>
       <c r="O1169" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1170" spans="1:15" x14ac:dyDescent="0.25">
@@ -65858,7 +65855,7 @@
         <v>2423</v>
       </c>
       <c r="O1170" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1171" spans="1:15" x14ac:dyDescent="0.25">
@@ -65905,7 +65902,7 @@
         <v>2423</v>
       </c>
       <c r="O1171" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1172" spans="1:15" x14ac:dyDescent="0.25">
@@ -65952,7 +65949,7 @@
         <v>2423</v>
       </c>
       <c r="O1172" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1173" spans="1:15" x14ac:dyDescent="0.25">
@@ -65999,7 +65996,7 @@
         <v>2423</v>
       </c>
       <c r="O1173" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1174" spans="1:15" x14ac:dyDescent="0.25">
@@ -66046,7 +66043,7 @@
         <v>2423</v>
       </c>
       <c r="O1174" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1175" spans="1:15" x14ac:dyDescent="0.25">
@@ -66093,7 +66090,7 @@
         <v>2423</v>
       </c>
       <c r="O1175" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1176" spans="1:15" x14ac:dyDescent="0.25">
@@ -66140,7 +66137,7 @@
         <v>2423</v>
       </c>
       <c r="O1176" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1177" spans="1:15" x14ac:dyDescent="0.25">
@@ -66187,7 +66184,7 @@
         <v>2423</v>
       </c>
       <c r="O1177" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1178" spans="1:15" x14ac:dyDescent="0.25">
@@ -66234,7 +66231,7 @@
         <v>2423</v>
       </c>
       <c r="O1178" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1179" spans="1:15" x14ac:dyDescent="0.25">
@@ -66281,7 +66278,7 @@
         <v>2423</v>
       </c>
       <c r="O1179" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1180" spans="1:15" x14ac:dyDescent="0.25">
@@ -66328,7 +66325,7 @@
         <v>2423</v>
       </c>
       <c r="O1180" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1181" spans="1:15" x14ac:dyDescent="0.25">
@@ -66375,7 +66372,7 @@
         <v>2423</v>
       </c>
       <c r="O1181" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1182" spans="1:15" x14ac:dyDescent="0.25">
@@ -66422,7 +66419,7 @@
         <v>2423</v>
       </c>
       <c r="O1182" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1183" spans="1:15" x14ac:dyDescent="0.25">
@@ -66469,7 +66466,7 @@
         <v>2423</v>
       </c>
       <c r="O1183" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1184" spans="1:15" x14ac:dyDescent="0.25">
@@ -66516,7 +66513,7 @@
         <v>2423</v>
       </c>
       <c r="O1184" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1185" spans="1:15" x14ac:dyDescent="0.25">
@@ -66563,7 +66560,7 @@
         <v>2423</v>
       </c>
       <c r="O1185" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1186" spans="1:15" x14ac:dyDescent="0.25">
@@ -66610,7 +66607,7 @@
         <v>2423</v>
       </c>
       <c r="O1186" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1187" spans="1:15" x14ac:dyDescent="0.25">
@@ -66657,7 +66654,7 @@
         <v>2423</v>
       </c>
       <c r="O1187" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1188" spans="1:15" x14ac:dyDescent="0.25">
@@ -66704,7 +66701,7 @@
         <v>2423</v>
       </c>
       <c r="O1188" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1189" spans="1:15" x14ac:dyDescent="0.25">
@@ -66751,7 +66748,7 @@
         <v>2423</v>
       </c>
       <c r="O1189" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1190" spans="1:15" x14ac:dyDescent="0.25">
@@ -66798,7 +66795,7 @@
         <v>2423</v>
       </c>
       <c r="O1190" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1191" spans="1:15" x14ac:dyDescent="0.25">
@@ -66845,7 +66842,7 @@
         <v>2423</v>
       </c>
       <c r="O1191" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1192" spans="1:15" x14ac:dyDescent="0.25">
@@ -66892,7 +66889,7 @@
         <v>2423</v>
       </c>
       <c r="O1192" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1193" spans="1:15" x14ac:dyDescent="0.25">
@@ -66939,7 +66936,7 @@
         <v>2423</v>
       </c>
       <c r="O1193" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1194" spans="1:15" x14ac:dyDescent="0.25">
@@ -66986,7 +66983,7 @@
         <v>2423</v>
       </c>
       <c r="O1194" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1195" spans="1:15" x14ac:dyDescent="0.25">
@@ -67033,7 +67030,7 @@
         <v>2423</v>
       </c>
       <c r="O1195" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1196" spans="1:15" x14ac:dyDescent="0.25">
@@ -67080,7 +67077,7 @@
         <v>2423</v>
       </c>
       <c r="O1196" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1197" spans="1:15" x14ac:dyDescent="0.25">
@@ -67127,7 +67124,7 @@
         <v>2423</v>
       </c>
       <c r="O1197" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1198" spans="1:15" x14ac:dyDescent="0.25">
@@ -67174,21 +67171,22 @@
         <v>2423</v>
       </c>
       <c r="O1198" s="7" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId2"/>
     <hyperlink ref="A4" r:id="rId3"/>
     <hyperlink ref="A6" r:id="rId4"/>
     <hyperlink ref="A7" r:id="rId5"/>
     <hyperlink ref="A8" r:id="rId6"/>
     <hyperlink ref="A9" r:id="rId7"/>
     <hyperlink ref="A11" r:id="rId8"/>
+    <hyperlink ref="A133" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/TestData/MasterDataSheetUI.xlsx
+++ b/TestData/MasterDataSheetUI.xlsx
@@ -10854,7 +10854,7 @@
   <dimension ref="A1:O1198"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O132" sqref="O132"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10956,7 +10956,7 @@
         <v>2417</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>2419</v>
+        <v>2423</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>3318</v>
@@ -11003,7 +11003,7 @@
         <v>2419</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="O3" t="s">
         <v>3318</v>
@@ -11097,7 +11097,7 @@
         <v>2419</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>2423</v>
+        <v>2417</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>3318</v>
@@ -11191,7 +11191,7 @@
         <v>2419</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>2423</v>
+        <v>2417</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>3318</v>
@@ -11285,7 +11285,7 @@
         <v>2419</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>2423</v>
+        <v>2417</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>3318</v>
@@ -11379,7 +11379,7 @@
         <v>2419</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>2423</v>
+        <v>2417</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>3318</v>
@@ -11473,7 +11473,7 @@
         <v>2419</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>2423</v>
+        <v>2417</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>3318</v>

--- a/TestData/MasterDataSheetUI.xlsx
+++ b/TestData/MasterDataSheetUI.xlsx
@@ -12673,8 +12673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O1198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="O69" sqref="O69"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TestData/MasterDataSheetUI.xlsx
+++ b/TestData/MasterDataSheetUI.xlsx
@@ -12674,7 +12674,7 @@
   <dimension ref="A1:O1198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
